--- a/Consolidados/tabla_012_migra_Consolidado.xlsx
+++ b/Consolidados/tabla_012_migra_Consolidado.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22527"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian\Documents\GitHub\Casen-limpio\tabla_012_migra\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ian\Documents\GitHub\Casen-limpio\Consolidados\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40009_{5FD5C332-4ECD-404B-A1F3-30B14E333301}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6392E532-DE6F-4205-8285-A85F7966DECC}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="20370" yWindow="-120" windowWidth="15600" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="tabla_012_migra_2011" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11371" uniqueCount="547">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="11371" uniqueCount="546">
   <si>
     <t>unlist.b.</t>
   </si>
@@ -1120,9 +1120,6 @@
     <t>Portugal</t>
   </si>
   <si>
-    <t>No Responde</t>
-  </si>
-  <si>
     <t>Brasil</t>
   </si>
   <si>
@@ -1666,7 +1663,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -2205,16 +2202,16 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Tabla1" displayName="Tabla1" ref="A1:G2842" totalsRowShown="0">
-  <autoFilter ref="A1:G2842"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Tabla1" displayName="Tabla1" ref="A1:G2842" totalsRowShown="0">
+  <autoFilter ref="A1:G2842" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
   <tableColumns count="7">
-    <tableColumn id="1" name="Comuna"/>
-    <tableColumn id="2" name="unlist.b."/>
-    <tableColumn id="3" name="País"/>
-    <tableColumn id="4" name="Sexo"/>
-    <tableColumn id="5" name="Freq"/>
-    <tableColumn id="6" name="Año"/>
-    <tableColumn id="7" name="Cod_Com"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="Comuna"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="unlist.b."/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="País"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Sexo"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="Freq"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Año"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Cod_Com"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2516,12 +2513,10 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G2842"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:G2842"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -51802,7 +51797,7 @@
         <v>340</v>
       </c>
       <c r="C2143" t="s">
-        <v>366</v>
+        <v>7</v>
       </c>
       <c r="D2143" t="s">
         <v>330</v>
@@ -51825,7 +51820,7 @@
         <v>331</v>
       </c>
       <c r="C2144" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D2144" t="s">
         <v>330</v>
@@ -51894,7 +51889,7 @@
         <v>331</v>
       </c>
       <c r="C2147" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D2147" t="s">
         <v>330</v>
@@ -51934,7 +51929,7 @@
     </row>
     <row r="2149" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2149" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B2149" t="s">
         <v>335</v>
@@ -51957,7 +51952,7 @@
     </row>
     <row r="2150" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2150" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B2150" t="s">
         <v>331</v>
@@ -51980,7 +51975,7 @@
     </row>
     <row r="2151" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2151" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B2151" t="s">
         <v>331</v>
@@ -52003,7 +51998,7 @@
     </row>
     <row r="2152" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2152" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B2152" t="s">
         <v>335</v>
@@ -52026,7 +52021,7 @@
     </row>
     <row r="2153" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2153" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B2153" t="s">
         <v>333</v>
@@ -52049,7 +52044,7 @@
     </row>
     <row r="2154" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2154" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B2154" t="s">
         <v>342</v>
@@ -52072,7 +52067,7 @@
     </row>
     <row r="2155" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2155" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B2155" t="s">
         <v>335</v>
@@ -52095,7 +52090,7 @@
     </row>
     <row r="2156" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2156" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B2156" t="s">
         <v>331</v>
@@ -52118,7 +52113,7 @@
     </row>
     <row r="2157" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2157" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B2157" t="s">
         <v>340</v>
@@ -52141,7 +52136,7 @@
     </row>
     <row r="2158" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2158" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B2158" t="s">
         <v>328</v>
@@ -52164,7 +52159,7 @@
     </row>
     <row r="2159" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2159" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B2159" t="s">
         <v>342</v>
@@ -52187,7 +52182,7 @@
     </row>
     <row r="2160" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2160" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B2160" t="s">
         <v>340</v>
@@ -52210,7 +52205,7 @@
     </row>
     <row r="2161" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2161" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B2161" t="s">
         <v>335</v>
@@ -52233,7 +52228,7 @@
     </row>
     <row r="2162" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2162" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B2162" t="s">
         <v>342</v>
@@ -52256,13 +52251,13 @@
     </row>
     <row r="2163" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2163" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B2163" t="s">
         <v>340</v>
       </c>
       <c r="C2163" t="s">
-        <v>366</v>
+        <v>7</v>
       </c>
       <c r="D2163" t="s">
         <v>330</v>
@@ -52279,7 +52274,7 @@
     </row>
     <row r="2164" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2164" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B2164" t="s">
         <v>353</v>
@@ -52302,7 +52297,7 @@
     </row>
     <row r="2165" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2165" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B2165" t="s">
         <v>331</v>
@@ -52325,7 +52320,7 @@
     </row>
     <row r="2166" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2166" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B2166" t="s">
         <v>342</v>
@@ -52348,7 +52343,7 @@
     </row>
     <row r="2167" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2167" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B2167" t="s">
         <v>331</v>
@@ -52371,7 +52366,7 @@
     </row>
     <row r="2168" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2168" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B2168" t="s">
         <v>335</v>
@@ -52394,7 +52389,7 @@
     </row>
     <row r="2169" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2169" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B2169" t="s">
         <v>344</v>
@@ -52417,7 +52412,7 @@
     </row>
     <row r="2170" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2170" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B2170" t="s">
         <v>335</v>
@@ -52440,13 +52435,13 @@
     </row>
     <row r="2171" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2171" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B2171" t="s">
         <v>331</v>
       </c>
       <c r="C2171" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D2171" t="s">
         <v>330</v>
@@ -52463,7 +52458,7 @@
     </row>
     <row r="2172" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2172" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B2172" t="s">
         <v>340</v>
@@ -52486,7 +52481,7 @@
     </row>
     <row r="2173" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2173" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B2173" t="s">
         <v>331</v>
@@ -52509,7 +52504,7 @@
     </row>
     <row r="2174" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2174" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B2174" t="s">
         <v>331</v>
@@ -52532,7 +52527,7 @@
     </row>
     <row r="2175" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2175" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B2175" t="s">
         <v>335</v>
@@ -52555,13 +52550,13 @@
     </row>
     <row r="2176" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2176" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B2176" t="s">
         <v>331</v>
       </c>
       <c r="C2176" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D2176" t="s">
         <v>330</v>
@@ -52578,7 +52573,7 @@
     </row>
     <row r="2177" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2177" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B2177" t="s">
         <v>331</v>
@@ -52601,13 +52596,13 @@
     </row>
     <row r="2178" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2178" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B2178" t="s">
         <v>340</v>
       </c>
       <c r="C2178" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D2178" t="s">
         <v>330</v>
@@ -52624,7 +52619,7 @@
     </row>
     <row r="2179" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2179" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B2179" t="s">
         <v>340</v>
@@ -52647,7 +52642,7 @@
     </row>
     <row r="2180" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2180" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B2180" t="s">
         <v>338</v>
@@ -52670,7 +52665,7 @@
     </row>
     <row r="2181" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2181" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B2181" t="s">
         <v>331</v>
@@ -52693,7 +52688,7 @@
     </row>
     <row r="2182" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2182" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B2182" t="s">
         <v>342</v>
@@ -52716,7 +52711,7 @@
     </row>
     <row r="2183" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2183" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B2183" t="s">
         <v>333</v>
@@ -52739,7 +52734,7 @@
     </row>
     <row r="2184" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2184" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B2184" t="s">
         <v>333</v>
@@ -52762,7 +52757,7 @@
     </row>
     <row r="2185" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2185" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B2185" t="s">
         <v>333</v>
@@ -52785,13 +52780,13 @@
     </row>
     <row r="2186" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2186" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B2186" t="s">
         <v>331</v>
       </c>
       <c r="C2186" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D2186" t="s">
         <v>330</v>
@@ -52808,13 +52803,13 @@
     </row>
     <row r="2187" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2187" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B2187" t="s">
         <v>353</v>
       </c>
       <c r="C2187" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D2187" t="s">
         <v>341</v>
@@ -52831,13 +52826,13 @@
     </row>
     <row r="2188" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2188" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B2188" t="s">
         <v>340</v>
       </c>
       <c r="C2188" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D2188" t="s">
         <v>341</v>
@@ -52854,7 +52849,7 @@
     </row>
     <row r="2189" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2189" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B2189" t="s">
         <v>344</v>
@@ -52877,13 +52872,13 @@
     </row>
     <row r="2190" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2190" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B2190" t="s">
         <v>340</v>
       </c>
       <c r="C2190" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D2190" t="s">
         <v>330</v>
@@ -52900,7 +52895,7 @@
     </row>
     <row r="2191" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2191" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B2191" t="s">
         <v>333</v>
@@ -52923,7 +52918,7 @@
     </row>
     <row r="2192" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2192" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B2192" t="s">
         <v>344</v>
@@ -52946,7 +52941,7 @@
     </row>
     <row r="2193" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2193" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B2193" t="s">
         <v>344</v>
@@ -52969,13 +52964,13 @@
     </row>
     <row r="2194" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2194" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B2194" t="s">
         <v>333</v>
       </c>
       <c r="C2194" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D2194" t="s">
         <v>341</v>
@@ -52992,7 +52987,7 @@
     </row>
     <row r="2195" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2195" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B2195" t="s">
         <v>342</v>
@@ -53015,13 +53010,13 @@
     </row>
     <row r="2196" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2196" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B2196" t="s">
         <v>333</v>
       </c>
       <c r="C2196" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D2196" t="s">
         <v>330</v>
@@ -53038,13 +53033,13 @@
     </row>
     <row r="2197" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2197" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B2197" t="s">
         <v>342</v>
       </c>
       <c r="C2197" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D2197" t="s">
         <v>330</v>
@@ -53061,7 +53056,7 @@
     </row>
     <row r="2198" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2198" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B2198" t="s">
         <v>331</v>
@@ -53084,7 +53079,7 @@
     </row>
     <row r="2199" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2199" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B2199" t="s">
         <v>335</v>
@@ -53107,13 +53102,13 @@
     </row>
     <row r="2200" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2200" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B2200" t="s">
         <v>333</v>
       </c>
       <c r="C2200" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D2200" t="s">
         <v>330</v>
@@ -53130,7 +53125,7 @@
     </row>
     <row r="2201" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2201" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B2201" t="s">
         <v>359</v>
@@ -53153,7 +53148,7 @@
     </row>
     <row r="2202" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2202" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B2202" t="s">
         <v>331</v>
@@ -53176,7 +53171,7 @@
     </row>
     <row r="2203" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2203" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B2203" t="s">
         <v>354</v>
@@ -53199,7 +53194,7 @@
     </row>
     <row r="2204" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2204" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B2204" t="s">
         <v>342</v>
@@ -53222,7 +53217,7 @@
     </row>
     <row r="2205" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2205" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B2205" t="s">
         <v>331</v>
@@ -53245,7 +53240,7 @@
     </row>
     <row r="2206" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2206" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B2206" t="s">
         <v>331</v>
@@ -53268,10 +53263,10 @@
     </row>
     <row r="2207" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2207" t="s">
+        <v>392</v>
+      </c>
+      <c r="B2207" t="s">
         <v>393</v>
-      </c>
-      <c r="B2207" t="s">
-        <v>394</v>
       </c>
       <c r="C2207" t="s">
         <v>347</v>
@@ -53291,7 +53286,7 @@
     </row>
     <row r="2208" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2208" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B2208" t="s">
         <v>335</v>
@@ -53314,7 +53309,7 @@
     </row>
     <row r="2209" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2209" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B2209" t="s">
         <v>361</v>
@@ -53337,13 +53332,13 @@
     </row>
     <row r="2210" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2210" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B2210" t="s">
         <v>340</v>
       </c>
       <c r="C2210" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D2210" t="s">
         <v>330</v>
@@ -53360,7 +53355,7 @@
     </row>
     <row r="2211" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2211" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B2211" t="s">
         <v>335</v>
@@ -53383,7 +53378,7 @@
     </row>
     <row r="2212" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2212" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B2212" t="s">
         <v>335</v>
@@ -53406,7 +53401,7 @@
     </row>
     <row r="2213" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2213" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B2213" t="s">
         <v>353</v>
@@ -53429,7 +53424,7 @@
     </row>
     <row r="2214" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2214" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B2214" t="s">
         <v>342</v>
@@ -53452,7 +53447,7 @@
     </row>
     <row r="2215" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2215" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B2215" t="s">
         <v>331</v>
@@ -53475,7 +53470,7 @@
     </row>
     <row r="2216" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2216" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B2216" t="s">
         <v>333</v>
@@ -53498,7 +53493,7 @@
     </row>
     <row r="2217" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2217" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B2217" t="s">
         <v>338</v>
@@ -53521,7 +53516,7 @@
     </row>
     <row r="2218" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2218" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B2218" t="s">
         <v>342</v>
@@ -53544,13 +53539,13 @@
     </row>
     <row r="2219" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2219" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B2219" t="s">
         <v>340</v>
       </c>
       <c r="C2219" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D2219" t="s">
         <v>330</v>
@@ -53567,7 +53562,7 @@
     </row>
     <row r="2220" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2220" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B2220" t="s">
         <v>328</v>
@@ -53590,7 +53585,7 @@
     </row>
     <row r="2221" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2221" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B2221" t="s">
         <v>331</v>
@@ -53613,7 +53608,7 @@
     </row>
     <row r="2222" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2222" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B2222" t="s">
         <v>328</v>
@@ -53636,7 +53631,7 @@
     </row>
     <row r="2223" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2223" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B2223" t="s">
         <v>340</v>
@@ -53659,7 +53654,7 @@
     </row>
     <row r="2224" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2224" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B2224" t="s">
         <v>335</v>
@@ -53682,7 +53677,7 @@
     </row>
     <row r="2225" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2225" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B2225" t="s">
         <v>335</v>
@@ -53705,13 +53700,13 @@
     </row>
     <row r="2226" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2226" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B2226" t="s">
         <v>340</v>
       </c>
       <c r="C2226" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D2226" t="s">
         <v>341</v>
@@ -53728,7 +53723,7 @@
     </row>
     <row r="2227" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2227" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B2227" t="s">
         <v>331</v>
@@ -53751,7 +53746,7 @@
     </row>
     <row r="2228" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2228" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B2228" t="s">
         <v>335</v>
@@ -53774,7 +53769,7 @@
     </row>
     <row r="2229" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2229" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B2229" t="s">
         <v>338</v>
@@ -53797,7 +53792,7 @@
     </row>
     <row r="2230" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2230" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B2230" t="s">
         <v>340</v>
@@ -53820,7 +53815,7 @@
     </row>
     <row r="2231" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2231" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B2231" t="s">
         <v>359</v>
@@ -53843,7 +53838,7 @@
     </row>
     <row r="2232" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2232" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B2232" t="s">
         <v>333</v>
@@ -53866,7 +53861,7 @@
     </row>
     <row r="2233" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2233" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B2233" t="s">
         <v>335</v>
@@ -53889,13 +53884,13 @@
     </row>
     <row r="2234" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2234" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B2234" t="s">
         <v>333</v>
       </c>
       <c r="C2234" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D2234" t="s">
         <v>341</v>
@@ -53912,7 +53907,7 @@
     </row>
     <row r="2235" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2235" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B2235" t="s">
         <v>364</v>
@@ -53935,13 +53930,13 @@
     </row>
     <row r="2236" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2236" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B2236" t="s">
         <v>335</v>
       </c>
       <c r="C2236" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D2236" t="s">
         <v>330</v>
@@ -53958,7 +53953,7 @@
     </row>
     <row r="2237" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2237" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B2237" t="s">
         <v>331</v>
@@ -53981,7 +53976,7 @@
     </row>
     <row r="2238" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2238" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B2238" t="s">
         <v>331</v>
@@ -54004,7 +53999,7 @@
     </row>
     <row r="2239" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2239" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B2239" t="s">
         <v>335</v>
@@ -54027,7 +54022,7 @@
     </row>
     <row r="2240" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2240" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B2240" t="s">
         <v>331</v>
@@ -54050,7 +54045,7 @@
     </row>
     <row r="2241" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2241" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B2241" t="s">
         <v>342</v>
@@ -54073,7 +54068,7 @@
     </row>
     <row r="2242" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2242" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B2242" t="s">
         <v>331</v>
@@ -54096,13 +54091,13 @@
     </row>
     <row r="2243" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2243" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B2243" t="s">
         <v>335</v>
       </c>
       <c r="C2243" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D2243" t="s">
         <v>341</v>
@@ -54119,7 +54114,7 @@
     </row>
     <row r="2244" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2244" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B2244" t="s">
         <v>342</v>
@@ -54142,7 +54137,7 @@
     </row>
     <row r="2245" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2245" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B2245" t="s">
         <v>331</v>
@@ -54165,13 +54160,13 @@
     </row>
     <row r="2246" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2246" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B2246" t="s">
         <v>340</v>
       </c>
       <c r="C2246" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D2246" t="s">
         <v>330</v>
@@ -54188,7 +54183,7 @@
     </row>
     <row r="2247" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2247" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B2247" t="s">
         <v>333</v>
@@ -54211,13 +54206,13 @@
     </row>
     <row r="2248" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2248" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B2248" t="s">
         <v>342</v>
       </c>
       <c r="C2248" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D2248" t="s">
         <v>330</v>
@@ -54234,7 +54229,7 @@
     </row>
     <row r="2249" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2249" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B2249" t="s">
         <v>340</v>
@@ -54257,7 +54252,7 @@
     </row>
     <row r="2250" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2250" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B2250" t="s">
         <v>331</v>
@@ -54280,13 +54275,13 @@
     </row>
     <row r="2251" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2251" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B2251" t="s">
         <v>335</v>
       </c>
       <c r="C2251" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D2251" t="s">
         <v>330</v>
@@ -54303,7 +54298,7 @@
     </row>
     <row r="2252" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2252" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B2252" t="s">
         <v>335</v>
@@ -54326,7 +54321,7 @@
     </row>
     <row r="2253" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2253" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B2253" t="s">
         <v>335</v>
@@ -54349,10 +54344,10 @@
     </row>
     <row r="2254" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2254" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B2254" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C2254" t="s">
         <v>355</v>
@@ -54372,7 +54367,7 @@
     </row>
     <row r="2255" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2255" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B2255" t="s">
         <v>331</v>
@@ -54395,7 +54390,7 @@
     </row>
     <row r="2256" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2256" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B2256" t="s">
         <v>338</v>
@@ -54418,7 +54413,7 @@
     </row>
     <row r="2257" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2257" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B2257" t="s">
         <v>340</v>
@@ -54441,7 +54436,7 @@
     </row>
     <row r="2258" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2258" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B2258" t="s">
         <v>338</v>
@@ -54464,7 +54459,7 @@
     </row>
     <row r="2259" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2259" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B2259" t="s">
         <v>342</v>
@@ -54487,13 +54482,13 @@
     </row>
     <row r="2260" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2260" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B2260" t="s">
         <v>331</v>
       </c>
       <c r="C2260" t="s">
-        <v>366</v>
+        <v>7</v>
       </c>
       <c r="D2260" t="s">
         <v>330</v>
@@ -54510,7 +54505,7 @@
     </row>
     <row r="2261" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2261" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B2261" t="s">
         <v>344</v>
@@ -54533,7 +54528,7 @@
     </row>
     <row r="2262" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2262" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B2262" t="s">
         <v>342</v>
@@ -54556,7 +54551,7 @@
     </row>
     <row r="2263" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2263" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B2263" t="s">
         <v>331</v>
@@ -54579,7 +54574,7 @@
     </row>
     <row r="2264" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2264" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B2264" t="s">
         <v>338</v>
@@ -54602,13 +54597,13 @@
     </row>
     <row r="2265" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2265" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B2265" t="s">
         <v>331</v>
       </c>
       <c r="C2265" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D2265" t="s">
         <v>330</v>
@@ -54625,7 +54620,7 @@
     </row>
     <row r="2266" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2266" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B2266" t="s">
         <v>333</v>
@@ -54648,7 +54643,7 @@
     </row>
     <row r="2267" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2267" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B2267" t="s">
         <v>335</v>
@@ -54671,7 +54666,7 @@
     </row>
     <row r="2268" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2268" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B2268" t="s">
         <v>335</v>
@@ -54694,7 +54689,7 @@
     </row>
     <row r="2269" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2269" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B2269" t="s">
         <v>331</v>
@@ -54717,7 +54712,7 @@
     </row>
     <row r="2270" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2270" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B2270" t="s">
         <v>331</v>
@@ -54740,7 +54735,7 @@
     </row>
     <row r="2271" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2271" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B2271" t="s">
         <v>338</v>
@@ -54763,13 +54758,13 @@
     </row>
     <row r="2272" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2272" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B2272" t="s">
         <v>333</v>
       </c>
       <c r="C2272" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D2272" t="s">
         <v>330</v>
@@ -54786,7 +54781,7 @@
     </row>
     <row r="2273" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2273" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B2273" t="s">
         <v>335</v>
@@ -54809,7 +54804,7 @@
     </row>
     <row r="2274" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2274" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B2274" t="s">
         <v>342</v>
@@ -54832,7 +54827,7 @@
     </row>
     <row r="2275" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2275" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B2275" t="s">
         <v>331</v>
@@ -54855,7 +54850,7 @@
     </row>
     <row r="2276" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2276" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B2276" t="s">
         <v>335</v>
@@ -54878,7 +54873,7 @@
     </row>
     <row r="2277" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2277" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B2277" t="s">
         <v>331</v>
@@ -54901,13 +54896,13 @@
     </row>
     <row r="2278" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2278" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B2278" t="s">
         <v>331</v>
       </c>
       <c r="C2278" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D2278" t="s">
         <v>330</v>
@@ -54924,7 +54919,7 @@
     </row>
     <row r="2279" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2279" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B2279" t="s">
         <v>333</v>
@@ -54947,13 +54942,13 @@
     </row>
     <row r="2280" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2280" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B2280" t="s">
         <v>333</v>
       </c>
       <c r="C2280" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D2280" t="s">
         <v>330</v>
@@ -54970,7 +54965,7 @@
     </row>
     <row r="2281" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2281" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B2281" t="s">
         <v>335</v>
@@ -54993,7 +54988,7 @@
     </row>
     <row r="2282" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2282" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B2282" t="s">
         <v>344</v>
@@ -55016,7 +55011,7 @@
     </row>
     <row r="2283" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2283" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B2283" t="s">
         <v>335</v>
@@ -55039,7 +55034,7 @@
     </row>
     <row r="2284" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2284" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B2284" t="s">
         <v>333</v>
@@ -55062,13 +55057,13 @@
     </row>
     <row r="2285" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2285" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B2285" t="s">
         <v>335</v>
       </c>
       <c r="C2285" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D2285" t="s">
         <v>341</v>
@@ -55085,13 +55080,13 @@
     </row>
     <row r="2286" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2286" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B2286" t="s">
         <v>340</v>
       </c>
       <c r="C2286" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="D2286" t="s">
         <v>341</v>
@@ -55108,7 +55103,7 @@
     </row>
     <row r="2287" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2287" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B2287" t="s">
         <v>333</v>
@@ -55131,7 +55126,7 @@
     </row>
     <row r="2288" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2288" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B2288" t="s">
         <v>333</v>
@@ -55154,13 +55149,13 @@
     </row>
     <row r="2289" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2289" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B2289" t="s">
         <v>342</v>
       </c>
       <c r="C2289" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D2289" t="s">
         <v>330</v>
@@ -55177,7 +55172,7 @@
     </row>
     <row r="2290" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2290" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B2290" t="s">
         <v>331</v>
@@ -55200,7 +55195,7 @@
     </row>
     <row r="2291" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2291" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B2291" t="s">
         <v>331</v>
@@ -55223,13 +55218,13 @@
     </row>
     <row r="2292" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2292" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B2292" t="s">
         <v>364</v>
       </c>
       <c r="C2292" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D2292" t="s">
         <v>341</v>
@@ -55246,7 +55241,7 @@
     </row>
     <row r="2293" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2293" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B2293" t="s">
         <v>340</v>
@@ -55269,7 +55264,7 @@
     </row>
     <row r="2294" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2294" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B2294" t="s">
         <v>331</v>
@@ -55292,7 +55287,7 @@
     </row>
     <row r="2295" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2295" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B2295" t="s">
         <v>331</v>
@@ -55315,7 +55310,7 @@
     </row>
     <row r="2296" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2296" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B2296" t="s">
         <v>342</v>
@@ -55338,13 +55333,13 @@
     </row>
     <row r="2297" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2297" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B2297" t="s">
         <v>335</v>
       </c>
       <c r="C2297" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D2297" t="s">
         <v>330</v>
@@ -55361,7 +55356,7 @@
     </row>
     <row r="2298" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2298" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B2298" t="s">
         <v>331</v>
@@ -55384,7 +55379,7 @@
     </row>
     <row r="2299" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2299" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B2299" t="s">
         <v>342</v>
@@ -55407,7 +55402,7 @@
     </row>
     <row r="2300" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2300" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B2300" t="s">
         <v>335</v>
@@ -55430,7 +55425,7 @@
     </row>
     <row r="2301" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2301" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B2301" t="s">
         <v>331</v>
@@ -55453,7 +55448,7 @@
     </row>
     <row r="2302" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2302" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B2302" t="s">
         <v>333</v>
@@ -55476,7 +55471,7 @@
     </row>
     <row r="2303" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2303" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B2303" t="s">
         <v>331</v>
@@ -55499,7 +55494,7 @@
     </row>
     <row r="2304" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2304" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B2304" t="s">
         <v>342</v>
@@ -55522,7 +55517,7 @@
     </row>
     <row r="2305" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2305" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B2305" t="s">
         <v>359</v>
@@ -55545,7 +55540,7 @@
     </row>
     <row r="2306" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2306" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B2306" t="s">
         <v>335</v>
@@ -55568,7 +55563,7 @@
     </row>
     <row r="2307" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2307" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B2307" t="s">
         <v>331</v>
@@ -55591,7 +55586,7 @@
     </row>
     <row r="2308" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2308" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2308" t="s">
         <v>353</v>
@@ -55614,13 +55609,13 @@
     </row>
     <row r="2309" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2309" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2309" t="s">
         <v>335</v>
       </c>
       <c r="C2309" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D2309" t="s">
         <v>341</v>
@@ -55637,13 +55632,13 @@
     </row>
     <row r="2310" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2310" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2310" t="s">
         <v>333</v>
       </c>
       <c r="C2310" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D2310" t="s">
         <v>330</v>
@@ -55660,13 +55655,13 @@
     </row>
     <row r="2311" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2311" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2311" t="s">
         <v>335</v>
       </c>
       <c r="C2311" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D2311" t="s">
         <v>341</v>
@@ -55683,7 +55678,7 @@
     </row>
     <row r="2312" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2312" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2312" t="s">
         <v>328</v>
@@ -55706,7 +55701,7 @@
     </row>
     <row r="2313" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2313" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2313" t="s">
         <v>333</v>
@@ -55729,13 +55724,13 @@
     </row>
     <row r="2314" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2314" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2314" t="s">
         <v>331</v>
       </c>
       <c r="C2314" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="D2314" t="s">
         <v>330</v>
@@ -55752,7 +55747,7 @@
     </row>
     <row r="2315" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2315" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2315" t="s">
         <v>342</v>
@@ -55775,13 +55770,13 @@
     </row>
     <row r="2316" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2316" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2316" t="s">
         <v>331</v>
       </c>
       <c r="C2316" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="D2316" t="s">
         <v>330</v>
@@ -55798,7 +55793,7 @@
     </row>
     <row r="2317" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2317" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2317" t="s">
         <v>344</v>
@@ -55821,7 +55816,7 @@
     </row>
     <row r="2318" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2318" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2318" t="s">
         <v>353</v>
@@ -55844,7 +55839,7 @@
     </row>
     <row r="2319" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2319" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2319" t="s">
         <v>333</v>
@@ -55867,13 +55862,13 @@
     </row>
     <row r="2320" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2320" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2320" t="s">
         <v>333</v>
       </c>
       <c r="C2320" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D2320" t="s">
         <v>330</v>
@@ -55890,7 +55885,7 @@
     </row>
     <row r="2321" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2321" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2321" t="s">
         <v>340</v>
@@ -55913,7 +55908,7 @@
     </row>
     <row r="2322" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2322" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2322" t="s">
         <v>333</v>
@@ -55936,7 +55931,7 @@
     </row>
     <row r="2323" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2323" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2323" t="s">
         <v>344</v>
@@ -55959,7 +55954,7 @@
     </row>
     <row r="2324" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2324" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2324" t="s">
         <v>353</v>
@@ -55982,7 +55977,7 @@
     </row>
     <row r="2325" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2325" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2325" t="s">
         <v>338</v>
@@ -56005,7 +56000,7 @@
     </row>
     <row r="2326" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2326" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2326" t="s">
         <v>335</v>
@@ -56028,7 +56023,7 @@
     </row>
     <row r="2327" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2327" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2327" t="s">
         <v>331</v>
@@ -56051,7 +56046,7 @@
     </row>
     <row r="2328" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2328" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2328" t="s">
         <v>340</v>
@@ -56074,7 +56069,7 @@
     </row>
     <row r="2329" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2329" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2329" t="s">
         <v>342</v>
@@ -56097,10 +56092,10 @@
     </row>
     <row r="2330" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2330" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2330" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C2330" t="s">
         <v>334</v>
@@ -56120,7 +56115,7 @@
     </row>
     <row r="2331" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2331" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2331" t="s">
         <v>331</v>
@@ -56143,7 +56138,7 @@
     </row>
     <row r="2332" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2332" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2332" t="s">
         <v>342</v>
@@ -56166,7 +56161,7 @@
     </row>
     <row r="2333" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2333" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2333" t="s">
         <v>335</v>
@@ -56189,7 +56184,7 @@
     </row>
     <row r="2334" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2334" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2334" t="s">
         <v>335</v>
@@ -56212,7 +56207,7 @@
     </row>
     <row r="2335" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2335" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2335" t="s">
         <v>328</v>
@@ -56235,13 +56230,13 @@
     </row>
     <row r="2336" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2336" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2336" t="s">
         <v>331</v>
       </c>
       <c r="C2336" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D2336" t="s">
         <v>330</v>
@@ -56258,7 +56253,7 @@
     </row>
     <row r="2337" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2337" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2337" t="s">
         <v>338</v>
@@ -56281,7 +56276,7 @@
     </row>
     <row r="2338" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2338" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2338" t="s">
         <v>338</v>
@@ -56304,7 +56299,7 @@
     </row>
     <row r="2339" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2339" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2339" t="s">
         <v>353</v>
@@ -56327,7 +56322,7 @@
     </row>
     <row r="2340" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2340" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2340" t="s">
         <v>364</v>
@@ -56350,7 +56345,7 @@
     </row>
     <row r="2341" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2341" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2341" t="s">
         <v>333</v>
@@ -56373,7 +56368,7 @@
     </row>
     <row r="2342" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2342" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2342" t="s">
         <v>354</v>
@@ -56396,7 +56391,7 @@
     </row>
     <row r="2343" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2343" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2343" t="s">
         <v>342</v>
@@ -56419,7 +56414,7 @@
     </row>
     <row r="2344" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2344" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2344" t="s">
         <v>333</v>
@@ -56442,7 +56437,7 @@
     </row>
     <row r="2345" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2345" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2345" t="s">
         <v>359</v>
@@ -56465,13 +56460,13 @@
     </row>
     <row r="2346" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2346" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2346" t="s">
         <v>342</v>
       </c>
       <c r="C2346" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D2346" t="s">
         <v>330</v>
@@ -56488,7 +56483,7 @@
     </row>
     <row r="2347" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2347" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2347" t="s">
         <v>342</v>
@@ -56511,7 +56506,7 @@
     </row>
     <row r="2348" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2348" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2348" t="s">
         <v>331</v>
@@ -56534,7 +56529,7 @@
     </row>
     <row r="2349" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2349" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2349" t="s">
         <v>335</v>
@@ -56557,13 +56552,13 @@
     </row>
     <row r="2350" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2350" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2350" t="s">
         <v>333</v>
       </c>
       <c r="C2350" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D2350" t="s">
         <v>341</v>
@@ -56580,13 +56575,13 @@
     </row>
     <row r="2351" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2351" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2351" t="s">
         <v>331</v>
       </c>
       <c r="C2351" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D2351" t="s">
         <v>330</v>
@@ -56603,7 +56598,7 @@
     </row>
     <row r="2352" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2352" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2352" t="s">
         <v>331</v>
@@ -56626,13 +56621,13 @@
     </row>
     <row r="2353" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2353" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2353" t="s">
         <v>331</v>
       </c>
       <c r="C2353" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D2353" t="s">
         <v>330</v>
@@ -56649,7 +56644,7 @@
     </row>
     <row r="2354" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2354" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2354" t="s">
         <v>335</v>
@@ -56672,7 +56667,7 @@
     </row>
     <row r="2355" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2355" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2355" t="s">
         <v>331</v>
@@ -56695,7 +56690,7 @@
     </row>
     <row r="2356" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2356" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2356" t="s">
         <v>333</v>
@@ -56718,7 +56713,7 @@
     </row>
     <row r="2357" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2357" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B2357" t="s">
         <v>328</v>
@@ -56741,7 +56736,7 @@
     </row>
     <row r="2358" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2358" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B2358" t="s">
         <v>342</v>
@@ -56764,13 +56759,13 @@
     </row>
     <row r="2359" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2359" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B2359" t="s">
         <v>328</v>
       </c>
       <c r="C2359" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D2359" t="s">
         <v>330</v>
@@ -56787,13 +56782,13 @@
     </row>
     <row r="2360" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2360" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B2360" t="s">
         <v>340</v>
       </c>
       <c r="C2360" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D2360" t="s">
         <v>330</v>
@@ -56810,13 +56805,13 @@
     </row>
     <row r="2361" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2361" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B2361" t="s">
         <v>342</v>
       </c>
       <c r="C2361" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D2361" t="s">
         <v>330</v>
@@ -56833,7 +56828,7 @@
     </row>
     <row r="2362" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2362" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B2362" t="s">
         <v>342</v>
@@ -56856,7 +56851,7 @@
     </row>
     <row r="2363" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2363" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B2363" t="s">
         <v>344</v>
@@ -56879,7 +56874,7 @@
     </row>
     <row r="2364" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2364" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B2364" t="s">
         <v>342</v>
@@ -56902,7 +56897,7 @@
     </row>
     <row r="2365" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2365" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B2365" t="s">
         <v>338</v>
@@ -56925,7 +56920,7 @@
     </row>
     <row r="2366" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2366" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B2366" t="s">
         <v>340</v>
@@ -56948,7 +56943,7 @@
     </row>
     <row r="2367" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2367" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B2367" t="s">
         <v>331</v>
@@ -56971,7 +56966,7 @@
     </row>
     <row r="2368" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2368" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B2368" t="s">
         <v>340</v>
@@ -56994,13 +56989,13 @@
     </row>
     <row r="2369" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2369" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B2369" t="s">
         <v>331</v>
       </c>
       <c r="C2369" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D2369" t="s">
         <v>330</v>
@@ -57017,13 +57012,13 @@
     </row>
     <row r="2370" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2370" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B2370" t="s">
         <v>331</v>
       </c>
       <c r="C2370" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D2370" t="s">
         <v>330</v>
@@ -57040,7 +57035,7 @@
     </row>
     <row r="2371" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2371" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B2371" t="s">
         <v>342</v>
@@ -57063,7 +57058,7 @@
     </row>
     <row r="2372" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2372" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B2372" t="s">
         <v>338</v>
@@ -57086,7 +57081,7 @@
     </row>
     <row r="2373" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2373" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B2373" t="s">
         <v>338</v>
@@ -57109,7 +57104,7 @@
     </row>
     <row r="2374" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2374" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B2374" t="s">
         <v>331</v>
@@ -57132,7 +57127,7 @@
     </row>
     <row r="2375" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2375" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B2375" t="s">
         <v>361</v>
@@ -57155,13 +57150,13 @@
     </row>
     <row r="2376" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2376" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B2376" t="s">
         <v>338</v>
       </c>
       <c r="C2376" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D2376" t="s">
         <v>330</v>
@@ -57178,7 +57173,7 @@
     </row>
     <row r="2377" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2377" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B2377" t="s">
         <v>331</v>
@@ -57201,13 +57196,13 @@
     </row>
     <row r="2378" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2378" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B2378" t="s">
         <v>340</v>
       </c>
       <c r="C2378" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D2378" t="s">
         <v>330</v>
@@ -57224,7 +57219,7 @@
     </row>
     <row r="2379" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2379" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B2379" t="s">
         <v>333</v>
@@ -57247,7 +57242,7 @@
     </row>
     <row r="2380" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2380" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B2380" t="s">
         <v>340</v>
@@ -57270,7 +57265,7 @@
     </row>
     <row r="2381" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2381" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B2381" t="s">
         <v>331</v>
@@ -57293,7 +57288,7 @@
     </row>
     <row r="2382" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2382" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B2382" t="s">
         <v>340</v>
@@ -57316,7 +57311,7 @@
     </row>
     <row r="2383" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2383" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B2383" t="s">
         <v>340</v>
@@ -57339,7 +57334,7 @@
     </row>
     <row r="2384" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2384" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B2384" t="s">
         <v>331</v>
@@ -57362,7 +57357,7 @@
     </row>
     <row r="2385" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2385" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B2385" t="s">
         <v>328</v>
@@ -57385,7 +57380,7 @@
     </row>
     <row r="2386" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2386" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B2386" t="s">
         <v>361</v>
@@ -57408,7 +57403,7 @@
     </row>
     <row r="2387" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2387" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B2387" t="s">
         <v>361</v>
@@ -57431,7 +57426,7 @@
     </row>
     <row r="2388" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2388" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B2388" t="s">
         <v>335</v>
@@ -57454,13 +57449,13 @@
     </row>
     <row r="2389" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2389" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B2389" t="s">
         <v>340</v>
       </c>
       <c r="C2389" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D2389" t="s">
         <v>341</v>
@@ -57477,7 +57472,7 @@
     </row>
     <row r="2390" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2390" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B2390" t="s">
         <v>344</v>
@@ -57500,7 +57495,7 @@
     </row>
     <row r="2391" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2391" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B2391" t="s">
         <v>335</v>
@@ -57523,7 +57518,7 @@
     </row>
     <row r="2392" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2392" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B2392" t="s">
         <v>344</v>
@@ -57546,7 +57541,7 @@
     </row>
     <row r="2393" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2393" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B2393" t="s">
         <v>331</v>
@@ -57569,13 +57564,13 @@
     </row>
     <row r="2394" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2394" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B2394" t="s">
         <v>338</v>
       </c>
       <c r="C2394" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D2394" t="s">
         <v>330</v>
@@ -57592,7 +57587,7 @@
     </row>
     <row r="2395" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2395" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B2395" t="s">
         <v>340</v>
@@ -57615,7 +57610,7 @@
     </row>
     <row r="2396" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2396" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B2396" t="s">
         <v>342</v>
@@ -57638,7 +57633,7 @@
     </row>
     <row r="2397" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2397" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B2397" t="s">
         <v>340</v>
@@ -57661,7 +57656,7 @@
     </row>
     <row r="2398" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2398" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B2398" t="s">
         <v>331</v>
@@ -57684,7 +57679,7 @@
     </row>
     <row r="2399" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2399" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B2399" t="s">
         <v>335</v>
@@ -57707,13 +57702,13 @@
     </row>
     <row r="2400" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2400" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B2400" t="s">
         <v>331</v>
       </c>
       <c r="C2400" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D2400" t="s">
         <v>330</v>
@@ -57730,7 +57725,7 @@
     </row>
     <row r="2401" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2401" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B2401" t="s">
         <v>333</v>
@@ -57753,13 +57748,13 @@
     </row>
     <row r="2402" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2402" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B2402" t="s">
         <v>340</v>
       </c>
       <c r="C2402" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D2402" t="s">
         <v>330</v>
@@ -57776,7 +57771,7 @@
     </row>
     <row r="2403" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2403" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B2403" t="s">
         <v>328</v>
@@ -57799,7 +57794,7 @@
     </row>
     <row r="2404" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2404" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B2404" t="s">
         <v>340</v>
@@ -57822,7 +57817,7 @@
     </row>
     <row r="2405" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2405" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B2405" t="s">
         <v>335</v>
@@ -57845,13 +57840,13 @@
     </row>
     <row r="2406" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2406" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B2406" t="s">
         <v>340</v>
       </c>
       <c r="C2406" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D2406" t="s">
         <v>330</v>
@@ -57868,7 +57863,7 @@
     </row>
     <row r="2407" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2407" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B2407" t="s">
         <v>331</v>
@@ -57891,13 +57886,13 @@
     </row>
     <row r="2408" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2408" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B2408" t="s">
         <v>344</v>
       </c>
       <c r="C2408" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D2408" t="s">
         <v>330</v>
@@ -57914,7 +57909,7 @@
     </row>
     <row r="2409" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2409" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B2409" t="s">
         <v>333</v>
@@ -57937,13 +57932,13 @@
     </row>
     <row r="2410" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2410" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B2410" t="s">
         <v>335</v>
       </c>
       <c r="C2410" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D2410" t="s">
         <v>330</v>
@@ -57960,7 +57955,7 @@
     </row>
     <row r="2411" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2411" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B2411" t="s">
         <v>335</v>
@@ -57983,7 +57978,7 @@
     </row>
     <row r="2412" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2412" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B2412" t="s">
         <v>331</v>
@@ -58006,7 +58001,7 @@
     </row>
     <row r="2413" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2413" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B2413" t="s">
         <v>338</v>
@@ -58029,7 +58024,7 @@
     </row>
     <row r="2414" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2414" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B2414" t="s">
         <v>331</v>
@@ -58052,7 +58047,7 @@
     </row>
     <row r="2415" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2415" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B2415" t="s">
         <v>333</v>
@@ -58075,7 +58070,7 @@
     </row>
     <row r="2416" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2416" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B2416" t="s">
         <v>342</v>
@@ -58098,7 +58093,7 @@
     </row>
     <row r="2417" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2417" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B2417" t="s">
         <v>340</v>
@@ -58121,7 +58116,7 @@
     </row>
     <row r="2418" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2418" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B2418" t="s">
         <v>335</v>
@@ -58144,7 +58139,7 @@
     </row>
     <row r="2419" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2419" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B2419" t="s">
         <v>364</v>
@@ -58167,13 +58162,13 @@
     </row>
     <row r="2420" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2420" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B2420" t="s">
         <v>340</v>
       </c>
       <c r="C2420" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D2420" t="s">
         <v>341</v>
@@ -58190,13 +58185,13 @@
     </row>
     <row r="2421" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2421" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B2421" t="s">
         <v>340</v>
       </c>
       <c r="C2421" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D2421" t="s">
         <v>341</v>
@@ -58213,13 +58208,13 @@
     </row>
     <row r="2422" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2422" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B2422" t="s">
         <v>331</v>
       </c>
       <c r="C2422" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D2422" t="s">
         <v>330</v>
@@ -58236,10 +58231,10 @@
     </row>
     <row r="2423" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2423" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B2423" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C2423" t="s">
         <v>336</v>
@@ -58259,13 +58254,13 @@
     </row>
     <row r="2424" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2424" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B2424" t="s">
         <v>337</v>
       </c>
       <c r="C2424" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D2424" t="s">
         <v>330</v>
@@ -58282,7 +58277,7 @@
     </row>
     <row r="2425" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2425" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B2425" t="s">
         <v>333</v>
@@ -58305,7 +58300,7 @@
     </row>
     <row r="2426" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2426" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B2426" t="s">
         <v>335</v>
@@ -58328,7 +58323,7 @@
     </row>
     <row r="2427" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2427" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B2427" t="s">
         <v>331</v>
@@ -58351,13 +58346,13 @@
     </row>
     <row r="2428" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2428" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B2428" t="s">
         <v>335</v>
       </c>
       <c r="C2428" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D2428" t="s">
         <v>330</v>
@@ -58374,13 +58369,13 @@
     </row>
     <row r="2429" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2429" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B2429" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C2429" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D2429" t="s">
         <v>341</v>
@@ -58397,13 +58392,13 @@
     </row>
     <row r="2430" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2430" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B2430" t="s">
         <v>344</v>
       </c>
       <c r="C2430" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D2430" t="s">
         <v>330</v>
@@ -58420,7 +58415,7 @@
     </row>
     <row r="2431" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2431" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B2431" t="s">
         <v>335</v>
@@ -58443,13 +58438,13 @@
     </row>
     <row r="2432" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2432" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B2432" t="s">
         <v>335</v>
       </c>
       <c r="C2432" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D2432" t="s">
         <v>341</v>
@@ -58466,13 +58461,13 @@
     </row>
     <row r="2433" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2433" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B2433" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C2433" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="D2433" t="s">
         <v>330</v>
@@ -58489,7 +58484,7 @@
     </row>
     <row r="2434" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2434" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B2434" t="s">
         <v>338</v>
@@ -58512,7 +58507,7 @@
     </row>
     <row r="2435" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2435" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B2435" t="s">
         <v>333</v>
@@ -58535,7 +58530,7 @@
     </row>
     <row r="2436" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2436" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B2436" t="s">
         <v>335</v>
@@ -58558,7 +58553,7 @@
     </row>
     <row r="2437" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2437" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B2437" t="s">
         <v>331</v>
@@ -58581,7 +58576,7 @@
     </row>
     <row r="2438" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2438" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B2438" t="s">
         <v>342</v>
@@ -58604,13 +58599,13 @@
     </row>
     <row r="2439" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2439" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B2439" t="s">
         <v>331</v>
       </c>
       <c r="C2439" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D2439" t="s">
         <v>330</v>
@@ -58627,7 +58622,7 @@
     </row>
     <row r="2440" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2440" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B2440" t="s">
         <v>331</v>
@@ -58650,7 +58645,7 @@
     </row>
     <row r="2441" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2441" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B2441" t="s">
         <v>342</v>
@@ -58673,7 +58668,7 @@
     </row>
     <row r="2442" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2442" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B2442" t="s">
         <v>333</v>
@@ -58696,7 +58691,7 @@
     </row>
     <row r="2443" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2443" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B2443" t="s">
         <v>331</v>
@@ -58719,7 +58714,7 @@
     </row>
     <row r="2444" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2444" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B2444" t="s">
         <v>342</v>
@@ -58742,7 +58737,7 @@
     </row>
     <row r="2445" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2445" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B2445" t="s">
         <v>344</v>
@@ -58765,7 +58760,7 @@
     </row>
     <row r="2446" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2446" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B2446" t="s">
         <v>342</v>
@@ -58788,7 +58783,7 @@
     </row>
     <row r="2447" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2447" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B2447" t="s">
         <v>335</v>
@@ -58811,7 +58806,7 @@
     </row>
     <row r="2448" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2448" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B2448" t="s">
         <v>331</v>
@@ -58834,13 +58829,13 @@
     </row>
     <row r="2449" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2449" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B2449" t="s">
         <v>331</v>
       </c>
       <c r="C2449" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D2449" t="s">
         <v>330</v>
@@ -58857,7 +58852,7 @@
     </row>
     <row r="2450" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2450" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B2450" t="s">
         <v>333</v>
@@ -58880,13 +58875,13 @@
     </row>
     <row r="2451" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2451" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B2451" t="s">
         <v>338</v>
       </c>
       <c r="C2451" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="D2451" t="s">
         <v>330</v>
@@ -58903,7 +58898,7 @@
     </row>
     <row r="2452" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2452" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B2452" t="s">
         <v>340</v>
@@ -58926,7 +58921,7 @@
     </row>
     <row r="2453" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2453" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B2453" t="s">
         <v>335</v>
@@ -58949,7 +58944,7 @@
     </row>
     <row r="2454" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2454" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B2454" t="s">
         <v>342</v>
@@ -58972,13 +58967,13 @@
     </row>
     <row r="2455" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2455" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B2455" t="s">
         <v>340</v>
       </c>
       <c r="C2455" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="D2455" t="s">
         <v>330</v>
@@ -58995,7 +58990,7 @@
     </row>
     <row r="2456" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2456" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B2456" t="s">
         <v>331</v>
@@ -59018,7 +59013,7 @@
     </row>
     <row r="2457" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2457" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B2457" t="s">
         <v>331</v>
@@ -59041,7 +59036,7 @@
     </row>
     <row r="2458" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2458" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B2458" t="s">
         <v>333</v>
@@ -59064,13 +59059,13 @@
     </row>
     <row r="2459" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2459" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B2459" t="s">
         <v>328</v>
       </c>
       <c r="C2459" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D2459" t="s">
         <v>330</v>
@@ -59087,7 +59082,7 @@
     </row>
     <row r="2460" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2460" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B2460" t="s">
         <v>331</v>
@@ -59110,13 +59105,13 @@
     </row>
     <row r="2461" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2461" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B2461" t="s">
         <v>328</v>
       </c>
       <c r="C2461" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D2461" t="s">
         <v>330</v>
@@ -59133,7 +59128,7 @@
     </row>
     <row r="2462" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2462" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B2462" t="s">
         <v>331</v>
@@ -59156,7 +59151,7 @@
     </row>
     <row r="2463" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2463" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B2463" t="s">
         <v>333</v>
@@ -59179,7 +59174,7 @@
     </row>
     <row r="2464" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2464" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B2464" t="s">
         <v>342</v>
@@ -59202,7 +59197,7 @@
     </row>
     <row r="2465" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2465" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B2465" t="s">
         <v>335</v>
@@ -59225,7 +59220,7 @@
     </row>
     <row r="2466" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2466" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B2466" t="s">
         <v>335</v>
@@ -59248,7 +59243,7 @@
     </row>
     <row r="2467" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2467" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B2467" t="s">
         <v>335</v>
@@ -59271,7 +59266,7 @@
     </row>
     <row r="2468" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2468" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B2468" t="s">
         <v>364</v>
@@ -59294,7 +59289,7 @@
     </row>
     <row r="2469" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2469" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B2469" t="s">
         <v>331</v>
@@ -59317,7 +59312,7 @@
     </row>
     <row r="2470" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2470" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B2470" t="s">
         <v>331</v>
@@ -59340,7 +59335,7 @@
     </row>
     <row r="2471" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2471" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B2471" t="s">
         <v>333</v>
@@ -59363,7 +59358,7 @@
     </row>
     <row r="2472" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2472" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B2472" t="s">
         <v>331</v>
@@ -59386,7 +59381,7 @@
     </row>
     <row r="2473" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2473" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B2473" t="s">
         <v>342</v>
@@ -59409,7 +59404,7 @@
     </row>
     <row r="2474" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2474" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B2474" t="s">
         <v>331</v>
@@ -59432,7 +59427,7 @@
     </row>
     <row r="2475" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2475" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B2475" t="s">
         <v>342</v>
@@ -59455,13 +59450,13 @@
     </row>
     <row r="2476" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2476" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B2476" t="s">
         <v>328</v>
       </c>
       <c r="C2476" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D2476" t="s">
         <v>341</v>
@@ -59478,7 +59473,7 @@
     </row>
     <row r="2477" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2477" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B2477" t="s">
         <v>338</v>
@@ -59501,7 +59496,7 @@
     </row>
     <row r="2478" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2478" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B2478" t="s">
         <v>333</v>
@@ -59524,7 +59519,7 @@
     </row>
     <row r="2479" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2479" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B2479" t="s">
         <v>335</v>
@@ -59547,13 +59542,13 @@
     </row>
     <row r="2480" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2480" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B2480" t="s">
         <v>333</v>
       </c>
       <c r="C2480" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="D2480" t="s">
         <v>330</v>
@@ -59570,13 +59565,13 @@
     </row>
     <row r="2481" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2481" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B2481" t="s">
         <v>331</v>
       </c>
       <c r="C2481" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D2481" t="s">
         <v>330</v>
@@ -59593,7 +59588,7 @@
     </row>
     <row r="2482" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2482" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B2482" t="s">
         <v>335</v>
@@ -59616,7 +59611,7 @@
     </row>
     <row r="2483" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2483" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B2483" t="s">
         <v>340</v>
@@ -59668,7 +59663,7 @@
         <v>335</v>
       </c>
       <c r="C2485" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D2485" t="s">
         <v>341</v>
@@ -59892,13 +59887,13 @@
     </row>
     <row r="2495" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2495" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B2495" t="s">
         <v>331</v>
       </c>
       <c r="C2495" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D2495" t="s">
         <v>341</v>
@@ -59915,13 +59910,13 @@
     </row>
     <row r="2496" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2496" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B2496" t="s">
         <v>331</v>
       </c>
       <c r="C2496" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D2496" t="s">
         <v>330</v>
@@ -59938,7 +59933,7 @@
     </row>
     <row r="2497" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2497" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B2497" t="s">
         <v>331</v>
@@ -59961,7 +59956,7 @@
     </row>
     <row r="2498" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2498" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B2498" t="s">
         <v>342</v>
@@ -59984,7 +59979,7 @@
     </row>
     <row r="2499" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2499" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B2499" t="s">
         <v>331</v>
@@ -60007,7 +60002,7 @@
     </row>
     <row r="2500" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2500" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B2500" t="s">
         <v>342</v>
@@ -60030,13 +60025,13 @@
     </row>
     <row r="2501" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2501" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B2501" t="s">
         <v>331</v>
       </c>
       <c r="C2501" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D2501" t="s">
         <v>330</v>
@@ -60053,7 +60048,7 @@
     </row>
     <row r="2502" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2502" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B2502" t="s">
         <v>340</v>
@@ -60076,7 +60071,7 @@
     </row>
     <row r="2503" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2503" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B2503" t="s">
         <v>340</v>
@@ -60099,7 +60094,7 @@
     </row>
     <row r="2504" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2504" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B2504" t="s">
         <v>331</v>
@@ -60122,7 +60117,7 @@
     </row>
     <row r="2505" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2505" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B2505" t="s">
         <v>340</v>
@@ -60145,7 +60140,7 @@
     </row>
     <row r="2506" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2506" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B2506" t="s">
         <v>333</v>
@@ -60168,13 +60163,13 @@
     </row>
     <row r="2507" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2507" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B2507" t="s">
         <v>359</v>
       </c>
       <c r="C2507" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D2507" t="s">
         <v>330</v>
@@ -60191,7 +60186,7 @@
     </row>
     <row r="2508" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2508" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B2508" t="s">
         <v>333</v>
@@ -60214,13 +60209,13 @@
     </row>
     <row r="2509" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2509" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B2509" t="s">
         <v>338</v>
       </c>
       <c r="C2509" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D2509" t="s">
         <v>341</v>
@@ -60237,7 +60232,7 @@
     </row>
     <row r="2510" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2510" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B2510" t="s">
         <v>340</v>
@@ -60260,13 +60255,13 @@
     </row>
     <row r="2511" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2511" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B2511" t="s">
         <v>331</v>
       </c>
       <c r="C2511" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D2511" t="s">
         <v>330</v>
@@ -60283,13 +60278,13 @@
     </row>
     <row r="2512" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2512" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B2512" t="s">
         <v>338</v>
       </c>
       <c r="C2512" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D2512" t="s">
         <v>341</v>
@@ -60306,7 +60301,7 @@
     </row>
     <row r="2513" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2513" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B2513" t="s">
         <v>335</v>
@@ -60329,7 +60324,7 @@
     </row>
     <row r="2514" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2514" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B2514" t="s">
         <v>340</v>
@@ -60352,7 +60347,7 @@
     </row>
     <row r="2515" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2515" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B2515" t="s">
         <v>331</v>
@@ -60375,7 +60370,7 @@
     </row>
     <row r="2516" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2516" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B2516" t="s">
         <v>340</v>
@@ -60398,13 +60393,13 @@
     </row>
     <row r="2517" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2517" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B2517" t="s">
         <v>344</v>
       </c>
       <c r="C2517" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="D2517" t="s">
         <v>330</v>
@@ -60421,13 +60416,13 @@
     </row>
     <row r="2518" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2518" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B2518" t="s">
         <v>342</v>
       </c>
       <c r="C2518" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D2518" t="s">
         <v>330</v>
@@ -60444,7 +60439,7 @@
     </row>
     <row r="2519" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2519" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B2519" t="s">
         <v>340</v>
@@ -60467,7 +60462,7 @@
     </row>
     <row r="2520" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2520" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B2520" t="s">
         <v>333</v>
@@ -60490,7 +60485,7 @@
     </row>
     <row r="2521" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2521" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B2521" t="s">
         <v>338</v>
@@ -60513,7 +60508,7 @@
     </row>
     <row r="2522" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2522" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B2522" t="s">
         <v>331</v>
@@ -60536,7 +60531,7 @@
     </row>
     <row r="2523" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2523" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B2523" t="s">
         <v>333</v>
@@ -60559,7 +60554,7 @@
     </row>
     <row r="2524" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2524" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B2524" t="s">
         <v>335</v>
@@ -60582,7 +60577,7 @@
     </row>
     <row r="2525" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2525" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B2525" t="s">
         <v>338</v>
@@ -60605,7 +60600,7 @@
     </row>
     <row r="2526" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2526" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B2526" t="s">
         <v>333</v>
@@ -60628,13 +60623,13 @@
     </row>
     <row r="2527" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2527" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B2527" t="s">
         <v>340</v>
       </c>
       <c r="C2527" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D2527" t="s">
         <v>330</v>
@@ -60651,7 +60646,7 @@
     </row>
     <row r="2528" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2528" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B2528" t="s">
         <v>331</v>
@@ -60674,7 +60669,7 @@
     </row>
     <row r="2529" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2529" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B2529" t="s">
         <v>331</v>
@@ -60697,7 +60692,7 @@
     </row>
     <row r="2530" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2530" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B2530" t="s">
         <v>335</v>
@@ -60720,7 +60715,7 @@
     </row>
     <row r="2531" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2531" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B2531" t="s">
         <v>333</v>
@@ -60743,7 +60738,7 @@
     </row>
     <row r="2532" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2532" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B2532" t="s">
         <v>353</v>
@@ -60766,7 +60761,7 @@
     </row>
     <row r="2533" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2533" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B2533" t="s">
         <v>331</v>
@@ -60789,7 +60784,7 @@
     </row>
     <row r="2534" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2534" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B2534" t="s">
         <v>331</v>
@@ -60812,7 +60807,7 @@
     </row>
     <row r="2535" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2535" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B2535" t="s">
         <v>340</v>
@@ -60835,7 +60830,7 @@
     </row>
     <row r="2536" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2536" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B2536" t="s">
         <v>331</v>
@@ -60858,7 +60853,7 @@
     </row>
     <row r="2537" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2537" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B2537" t="s">
         <v>342</v>
@@ -60881,13 +60876,13 @@
     </row>
     <row r="2538" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2538" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B2538" t="s">
         <v>340</v>
       </c>
       <c r="C2538" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D2538" t="s">
         <v>330</v>
@@ -60904,7 +60899,7 @@
     </row>
     <row r="2539" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2539" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B2539" t="s">
         <v>338</v>
@@ -60927,7 +60922,7 @@
     </row>
     <row r="2540" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2540" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B2540" t="s">
         <v>335</v>
@@ -60950,7 +60945,7 @@
     </row>
     <row r="2541" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2541" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B2541" t="s">
         <v>340</v>
@@ -60973,13 +60968,13 @@
     </row>
     <row r="2542" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2542" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B2542" t="s">
         <v>333</v>
       </c>
       <c r="C2542" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D2542" t="s">
         <v>330</v>
@@ -60996,13 +60991,13 @@
     </row>
     <row r="2543" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2543" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B2543" t="s">
         <v>335</v>
       </c>
       <c r="C2543" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D2543" t="s">
         <v>341</v>
@@ -61019,7 +61014,7 @@
     </row>
     <row r="2544" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2544" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B2544" t="s">
         <v>333</v>
@@ -61042,7 +61037,7 @@
     </row>
     <row r="2545" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2545" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B2545" t="s">
         <v>335</v>
@@ -61065,7 +61060,7 @@
     </row>
     <row r="2546" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2546" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B2546" t="s">
         <v>335</v>
@@ -61088,7 +61083,7 @@
     </row>
     <row r="2547" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2547" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B2547" t="s">
         <v>340</v>
@@ -61111,7 +61106,7 @@
     </row>
     <row r="2548" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2548" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B2548" t="s">
         <v>333</v>
@@ -61134,13 +61129,13 @@
     </row>
     <row r="2549" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2549" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B2549" t="s">
         <v>335</v>
       </c>
       <c r="C2549" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D2549" t="s">
         <v>341</v>
@@ -61157,7 +61152,7 @@
     </row>
     <row r="2550" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2550" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B2550" t="s">
         <v>335</v>
@@ -61180,7 +61175,7 @@
     </row>
     <row r="2551" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2551" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B2551" t="s">
         <v>344</v>
@@ -61203,13 +61198,13 @@
     </row>
     <row r="2552" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2552" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B2552" t="s">
         <v>340</v>
       </c>
       <c r="C2552" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D2552" t="s">
         <v>330</v>
@@ -61226,7 +61221,7 @@
     </row>
     <row r="2553" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2553" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B2553" t="s">
         <v>331</v>
@@ -61249,7 +61244,7 @@
     </row>
     <row r="2554" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2554" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B2554" t="s">
         <v>333</v>
@@ -61272,13 +61267,13 @@
     </row>
     <row r="2555" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2555" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B2555" t="s">
         <v>335</v>
       </c>
       <c r="C2555" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D2555" t="s">
         <v>330</v>
@@ -61295,7 +61290,7 @@
     </row>
     <row r="2556" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2556" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B2556" t="s">
         <v>340</v>
@@ -61318,7 +61313,7 @@
     </row>
     <row r="2557" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2557" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B2557" t="s">
         <v>335</v>
@@ -61341,7 +61336,7 @@
     </row>
     <row r="2558" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2558" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B2558" t="s">
         <v>333</v>
@@ -61364,10 +61359,10 @@
     </row>
     <row r="2559" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2559" t="s">
+        <v>479</v>
+      </c>
+      <c r="B2559" t="s">
         <v>480</v>
-      </c>
-      <c r="B2559" t="s">
-        <v>481</v>
       </c>
       <c r="C2559" t="s">
         <v>349</v>
@@ -61387,7 +61382,7 @@
     </row>
     <row r="2560" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2560" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B2560" t="s">
         <v>331</v>
@@ -61410,13 +61405,13 @@
     </row>
     <row r="2561" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2561" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B2561" t="s">
         <v>340</v>
       </c>
       <c r="C2561" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D2561" t="s">
         <v>341</v>
@@ -61433,7 +61428,7 @@
     </row>
     <row r="2562" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2562" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B2562" t="s">
         <v>338</v>
@@ -61456,7 +61451,7 @@
     </row>
     <row r="2563" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2563" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B2563" t="s">
         <v>335</v>
@@ -61479,7 +61474,7 @@
     </row>
     <row r="2564" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2564" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B2564" t="s">
         <v>333</v>
@@ -61502,7 +61497,7 @@
     </row>
     <row r="2565" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2565" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B2565" t="s">
         <v>335</v>
@@ -61525,7 +61520,7 @@
     </row>
     <row r="2566" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2566" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B2566" t="s">
         <v>331</v>
@@ -61548,7 +61543,7 @@
     </row>
     <row r="2567" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2567" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B2567" t="s">
         <v>335</v>
@@ -61571,7 +61566,7 @@
     </row>
     <row r="2568" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2568" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B2568" t="s">
         <v>333</v>
@@ -61594,7 +61589,7 @@
     </row>
     <row r="2569" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2569" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B2569" t="s">
         <v>333</v>
@@ -61617,7 +61612,7 @@
     </row>
     <row r="2570" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2570" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B2570" t="s">
         <v>333</v>
@@ -61640,7 +61635,7 @@
     </row>
     <row r="2571" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2571" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B2571" t="s">
         <v>335</v>
@@ -61663,7 +61658,7 @@
     </row>
     <row r="2572" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2572" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B2572" t="s">
         <v>331</v>
@@ -61686,7 +61681,7 @@
     </row>
     <row r="2573" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2573" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B2573" t="s">
         <v>333</v>
@@ -61709,7 +61704,7 @@
     </row>
     <row r="2574" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2574" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B2574" t="s">
         <v>342</v>
@@ -61732,7 +61727,7 @@
     </row>
     <row r="2575" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2575" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B2575" t="s">
         <v>342</v>
@@ -61755,7 +61750,7 @@
     </row>
     <row r="2576" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2576" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B2576" t="s">
         <v>335</v>
@@ -61778,13 +61773,13 @@
     </row>
     <row r="2577" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2577" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B2577" t="s">
         <v>361</v>
       </c>
       <c r="C2577" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D2577" t="s">
         <v>341</v>
@@ -61801,13 +61796,13 @@
     </row>
     <row r="2578" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2578" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B2578" t="s">
         <v>340</v>
       </c>
       <c r="C2578" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="D2578" t="s">
         <v>330</v>
@@ -61824,7 +61819,7 @@
     </row>
     <row r="2579" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2579" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B2579" t="s">
         <v>331</v>
@@ -61847,13 +61842,13 @@
     </row>
     <row r="2580" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2580" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B2580" t="s">
         <v>340</v>
       </c>
       <c r="C2580" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D2580" t="s">
         <v>330</v>
@@ -61870,13 +61865,13 @@
     </row>
     <row r="2581" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2581" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B2581" t="s">
         <v>340</v>
       </c>
       <c r="C2581" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D2581" t="s">
         <v>341</v>
@@ -61893,7 +61888,7 @@
     </row>
     <row r="2582" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2582" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B2582" t="s">
         <v>354</v>
@@ -61916,7 +61911,7 @@
     </row>
     <row r="2583" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2583" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B2583" t="s">
         <v>333</v>
@@ -61939,7 +61934,7 @@
     </row>
     <row r="2584" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2584" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B2584" t="s">
         <v>340</v>
@@ -61962,7 +61957,7 @@
     </row>
     <row r="2585" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2585" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B2585" t="s">
         <v>338</v>
@@ -61985,7 +61980,7 @@
     </row>
     <row r="2586" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2586" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B2586" t="s">
         <v>335</v>
@@ -62008,10 +62003,10 @@
     </row>
     <row r="2587" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2587" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B2587" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="C2587" t="s">
         <v>355</v>
@@ -62031,7 +62026,7 @@
     </row>
     <row r="2588" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2588" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B2588" t="s">
         <v>331</v>
@@ -62054,7 +62049,7 @@
     </row>
     <row r="2589" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2589" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B2589" t="s">
         <v>331</v>
@@ -62077,7 +62072,7 @@
     </row>
     <row r="2590" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2590" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B2590" t="s">
         <v>337</v>
@@ -62100,7 +62095,7 @@
     </row>
     <row r="2591" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2591" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B2591" t="s">
         <v>333</v>
@@ -62123,13 +62118,13 @@
     </row>
     <row r="2592" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2592" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B2592" t="s">
         <v>335</v>
       </c>
       <c r="C2592" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D2592" t="s">
         <v>330</v>
@@ -62146,7 +62141,7 @@
     </row>
     <row r="2593" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2593" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B2593" t="s">
         <v>335</v>
@@ -62169,7 +62164,7 @@
     </row>
     <row r="2594" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2594" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B2594" t="s">
         <v>335</v>
@@ -62192,7 +62187,7 @@
     </row>
     <row r="2595" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2595" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B2595" t="s">
         <v>331</v>
@@ -62215,7 +62210,7 @@
     </row>
     <row r="2596" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2596" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B2596" t="s">
         <v>331</v>
@@ -62238,7 +62233,7 @@
     </row>
     <row r="2597" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2597" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B2597" t="s">
         <v>342</v>
@@ -62261,7 +62256,7 @@
     </row>
     <row r="2598" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2598" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B2598" t="s">
         <v>340</v>
@@ -62284,7 +62279,7 @@
     </row>
     <row r="2599" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2599" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B2599" t="s">
         <v>335</v>
@@ -62307,13 +62302,13 @@
     </row>
     <row r="2600" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2600" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B2600" t="s">
         <v>342</v>
       </c>
       <c r="C2600" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D2600" t="s">
         <v>330</v>
@@ -62330,7 +62325,7 @@
     </row>
     <row r="2601" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2601" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B2601" t="s">
         <v>335</v>
@@ -62353,7 +62348,7 @@
     </row>
     <row r="2602" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2602" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B2602" t="s">
         <v>357</v>
@@ -62376,7 +62371,7 @@
     </row>
     <row r="2603" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2603" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B2603" t="s">
         <v>333</v>
@@ -62399,7 +62394,7 @@
     </row>
     <row r="2604" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2604" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B2604" t="s">
         <v>335</v>
@@ -62422,7 +62417,7 @@
     </row>
     <row r="2605" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2605" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B2605" t="s">
         <v>331</v>
@@ -62445,13 +62440,13 @@
     </row>
     <row r="2606" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2606" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B2606" t="s">
         <v>333</v>
       </c>
       <c r="C2606" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D2606" t="s">
         <v>330</v>
@@ -62468,7 +62463,7 @@
     </row>
     <row r="2607" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2607" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B2607" t="s">
         <v>331</v>
@@ -62491,7 +62486,7 @@
     </row>
     <row r="2608" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2608" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B2608" t="s">
         <v>333</v>
@@ -62514,7 +62509,7 @@
     </row>
     <row r="2609" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2609" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B2609" t="s">
         <v>340</v>
@@ -62537,7 +62532,7 @@
     </row>
     <row r="2610" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2610" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B2610" t="s">
         <v>338</v>
@@ -62560,7 +62555,7 @@
     </row>
     <row r="2611" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2611" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B2611" t="s">
         <v>340</v>
@@ -62583,7 +62578,7 @@
     </row>
     <row r="2612" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2612" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B2612" t="s">
         <v>331</v>
@@ -62606,13 +62601,13 @@
     </row>
     <row r="2613" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2613" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B2613" t="s">
         <v>331</v>
       </c>
       <c r="C2613" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D2613" t="s">
         <v>341</v>
@@ -62629,7 +62624,7 @@
     </row>
     <row r="2614" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2614" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B2614" t="s">
         <v>335</v>
@@ -62652,13 +62647,13 @@
     </row>
     <row r="2615" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2615" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B2615" t="s">
         <v>331</v>
       </c>
       <c r="C2615" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D2615" t="s">
         <v>330</v>
@@ -62675,7 +62670,7 @@
     </row>
     <row r="2616" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2616" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B2616" t="s">
         <v>342</v>
@@ -62698,7 +62693,7 @@
     </row>
     <row r="2617" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2617" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B2617" t="s">
         <v>331</v>
@@ -62721,13 +62716,13 @@
     </row>
     <row r="2618" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2618" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B2618" t="s">
         <v>344</v>
       </c>
       <c r="C2618" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D2618" t="s">
         <v>341</v>
@@ -62744,13 +62739,13 @@
     </row>
     <row r="2619" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2619" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B2619" t="s">
         <v>338</v>
       </c>
       <c r="C2619" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D2619" t="s">
         <v>341</v>
@@ -62767,7 +62762,7 @@
     </row>
     <row r="2620" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2620" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B2620" t="s">
         <v>342</v>
@@ -62790,7 +62785,7 @@
     </row>
     <row r="2621" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2621" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B2621" t="s">
         <v>331</v>
@@ -62813,7 +62808,7 @@
     </row>
     <row r="2622" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2622" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B2622" t="s">
         <v>357</v>
@@ -62836,7 +62831,7 @@
     </row>
     <row r="2623" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2623" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B2623" t="s">
         <v>335</v>
@@ -62859,7 +62854,7 @@
     </row>
     <row r="2624" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2624" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B2624" t="s">
         <v>331</v>
@@ -62882,7 +62877,7 @@
     </row>
     <row r="2625" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2625" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B2625" t="s">
         <v>331</v>
@@ -62905,7 +62900,7 @@
     </row>
     <row r="2626" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2626" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B2626" t="s">
         <v>335</v>
@@ -62928,7 +62923,7 @@
     </row>
     <row r="2627" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2627" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B2627" t="s">
         <v>340</v>
@@ -62951,13 +62946,13 @@
     </row>
     <row r="2628" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2628" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B2628" t="s">
         <v>340</v>
       </c>
       <c r="C2628" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D2628" t="s">
         <v>341</v>
@@ -62974,13 +62969,13 @@
     </row>
     <row r="2629" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2629" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B2629" t="s">
         <v>342</v>
       </c>
       <c r="C2629" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D2629" t="s">
         <v>330</v>
@@ -62997,7 +62992,7 @@
     </row>
     <row r="2630" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2630" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B2630" t="s">
         <v>361</v>
@@ -63020,7 +63015,7 @@
     </row>
     <row r="2631" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2631" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B2631" t="s">
         <v>335</v>
@@ -63043,7 +63038,7 @@
     </row>
     <row r="2632" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2632" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B2632" t="s">
         <v>331</v>
@@ -63066,13 +63061,13 @@
     </row>
     <row r="2633" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2633" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B2633" t="s">
         <v>338</v>
       </c>
       <c r="C2633" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D2633" t="s">
         <v>341</v>
@@ -63089,13 +63084,13 @@
     </row>
     <row r="2634" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2634" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B2634" t="s">
         <v>335</v>
       </c>
       <c r="C2634" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D2634" t="s">
         <v>341</v>
@@ -63112,13 +63107,13 @@
     </row>
     <row r="2635" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2635" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B2635" t="s">
         <v>361</v>
       </c>
       <c r="C2635" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D2635" t="s">
         <v>330</v>
@@ -63135,7 +63130,7 @@
     </row>
     <row r="2636" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2636" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B2636" t="s">
         <v>335</v>
@@ -63158,7 +63153,7 @@
     </row>
     <row r="2637" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2637" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B2637" t="s">
         <v>331</v>
@@ -63181,7 +63176,7 @@
     </row>
     <row r="2638" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2638" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B2638" t="s">
         <v>340</v>
@@ -63204,13 +63199,13 @@
     </row>
     <row r="2639" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2639" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B2639" t="s">
         <v>340</v>
       </c>
       <c r="C2639" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="D2639" t="s">
         <v>341</v>
@@ -63227,7 +63222,7 @@
     </row>
     <row r="2640" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2640" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B2640" t="s">
         <v>335</v>
@@ -63250,7 +63245,7 @@
     </row>
     <row r="2641" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2641" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B2641" t="s">
         <v>335</v>
@@ -63273,13 +63268,13 @@
     </row>
     <row r="2642" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2642" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B2642" t="s">
         <v>335</v>
       </c>
       <c r="C2642" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D2642" t="s">
         <v>341</v>
@@ -63296,7 +63291,7 @@
     </row>
     <row r="2643" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2643" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B2643" t="s">
         <v>342</v>
@@ -63319,7 +63314,7 @@
     </row>
     <row r="2644" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2644" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B2644" t="s">
         <v>353</v>
@@ -63342,7 +63337,7 @@
     </row>
     <row r="2645" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2645" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B2645" t="s">
         <v>331</v>
@@ -63365,7 +63360,7 @@
     </row>
     <row r="2646" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2646" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B2646" t="s">
         <v>331</v>
@@ -63388,7 +63383,7 @@
     </row>
     <row r="2647" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2647" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B2647" t="s">
         <v>338</v>
@@ -63411,7 +63406,7 @@
     </row>
     <row r="2648" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2648" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B2648" t="s">
         <v>333</v>
@@ -63434,7 +63429,7 @@
     </row>
     <row r="2649" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2649" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B2649" t="s">
         <v>340</v>
@@ -63457,7 +63452,7 @@
     </row>
     <row r="2650" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2650" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B2650" t="s">
         <v>353</v>
@@ -63480,7 +63475,7 @@
     </row>
     <row r="2651" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2651" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B2651" t="s">
         <v>335</v>
@@ -63503,7 +63498,7 @@
     </row>
     <row r="2652" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2652" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B2652" t="s">
         <v>333</v>
@@ -63526,7 +63521,7 @@
     </row>
     <row r="2653" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2653" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B2653" t="s">
         <v>340</v>
@@ -63549,13 +63544,13 @@
     </row>
     <row r="2654" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2654" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B2654" t="s">
         <v>335</v>
       </c>
       <c r="C2654" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D2654" t="s">
         <v>330</v>
@@ -63572,7 +63567,7 @@
     </row>
     <row r="2655" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2655" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B2655" t="s">
         <v>335</v>
@@ -63595,7 +63590,7 @@
     </row>
     <row r="2656" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2656" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B2656" t="s">
         <v>342</v>
@@ -63618,13 +63613,13 @@
     </row>
     <row r="2657" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2657" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B2657" t="s">
         <v>333</v>
       </c>
       <c r="C2657" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D2657" t="s">
         <v>330</v>
@@ -63641,7 +63636,7 @@
     </row>
     <row r="2658" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2658" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B2658" t="s">
         <v>331</v>
@@ -63664,13 +63659,13 @@
     </row>
     <row r="2659" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2659" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B2659" t="s">
         <v>331</v>
       </c>
       <c r="C2659" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D2659" t="s">
         <v>330</v>
@@ -63687,7 +63682,7 @@
     </row>
     <row r="2660" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2660" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B2660" t="s">
         <v>340</v>
@@ -63710,13 +63705,13 @@
     </row>
     <row r="2661" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2661" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B2661" t="s">
         <v>333</v>
       </c>
       <c r="C2661" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="D2661" t="s">
         <v>341</v>
@@ -63733,7 +63728,7 @@
     </row>
     <row r="2662" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2662" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B2662" t="s">
         <v>335</v>
@@ -63756,13 +63751,13 @@
     </row>
     <row r="2663" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2663" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B2663" t="s">
         <v>342</v>
       </c>
       <c r="C2663" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D2663" t="s">
         <v>330</v>
@@ -63779,13 +63774,13 @@
     </row>
     <row r="2664" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2664" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B2664" t="s">
         <v>331</v>
       </c>
       <c r="C2664" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D2664" t="s">
         <v>330</v>
@@ -63802,7 +63797,7 @@
     </row>
     <row r="2665" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2665" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B2665" t="s">
         <v>335</v>
@@ -63825,13 +63820,13 @@
     </row>
     <row r="2666" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2666" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B2666" t="s">
         <v>335</v>
       </c>
       <c r="C2666" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D2666" t="s">
         <v>341</v>
@@ -63848,7 +63843,7 @@
     </row>
     <row r="2667" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2667" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B2667" t="s">
         <v>331</v>
@@ -63871,7 +63866,7 @@
     </row>
     <row r="2668" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2668" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B2668" t="s">
         <v>333</v>
@@ -63894,7 +63889,7 @@
     </row>
     <row r="2669" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2669" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B2669" t="s">
         <v>331</v>
@@ -63917,7 +63912,7 @@
     </row>
     <row r="2670" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2670" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B2670" t="s">
         <v>335</v>
@@ -63940,7 +63935,7 @@
     </row>
     <row r="2671" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2671" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B2671" t="s">
         <v>331</v>
@@ -63963,13 +63958,13 @@
     </row>
     <row r="2672" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2672" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B2672" t="s">
         <v>361</v>
       </c>
       <c r="C2672" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D2672" t="s">
         <v>341</v>
@@ -63986,13 +63981,13 @@
     </row>
     <row r="2673" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2673" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B2673" t="s">
         <v>335</v>
       </c>
       <c r="C2673" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="D2673" t="s">
         <v>341</v>
@@ -64009,7 +64004,7 @@
     </row>
     <row r="2674" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2674" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B2674" t="s">
         <v>335</v>
@@ -64032,7 +64027,7 @@
     </row>
     <row r="2675" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2675" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B2675" t="s">
         <v>342</v>
@@ -64055,7 +64050,7 @@
     </row>
     <row r="2676" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2676" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B2676" t="s">
         <v>340</v>
@@ -64078,13 +64073,13 @@
     </row>
     <row r="2677" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2677" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B2677" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="C2677" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D2677" t="s">
         <v>341</v>
@@ -64101,13 +64096,13 @@
     </row>
     <row r="2678" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2678" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B2678" t="s">
         <v>335</v>
       </c>
       <c r="C2678" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D2678" t="s">
         <v>341</v>
@@ -64124,13 +64119,13 @@
     </row>
     <row r="2679" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2679" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B2679" t="s">
         <v>331</v>
       </c>
       <c r="C2679" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D2679" t="s">
         <v>330</v>
@@ -64147,7 +64142,7 @@
     </row>
     <row r="2680" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2680" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B2680" t="s">
         <v>331</v>
@@ -64170,13 +64165,13 @@
     </row>
     <row r="2681" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2681" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B2681" t="s">
         <v>340</v>
       </c>
       <c r="C2681" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D2681" t="s">
         <v>330</v>
@@ -64193,7 +64188,7 @@
     </row>
     <row r="2682" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2682" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B2682" t="s">
         <v>331</v>
@@ -64216,7 +64211,7 @@
     </row>
     <row r="2683" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2683" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B2683" t="s">
         <v>340</v>
@@ -64239,7 +64234,7 @@
     </row>
     <row r="2684" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2684" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B2684" t="s">
         <v>331</v>
@@ -64262,7 +64257,7 @@
     </row>
     <row r="2685" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2685" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B2685" t="s">
         <v>333</v>
@@ -64285,7 +64280,7 @@
     </row>
     <row r="2686" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2686" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B2686" t="s">
         <v>333</v>
@@ -64308,13 +64303,13 @@
     </row>
     <row r="2687" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2687" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B2687" t="s">
         <v>335</v>
       </c>
       <c r="C2687" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="D2687" t="s">
         <v>330</v>
@@ -64331,13 +64326,13 @@
     </row>
     <row r="2688" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2688" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B2688" t="s">
         <v>364</v>
       </c>
       <c r="C2688" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D2688" t="s">
         <v>341</v>
@@ -64354,13 +64349,13 @@
     </row>
     <row r="2689" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2689" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B2689" t="s">
         <v>335</v>
       </c>
       <c r="C2689" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D2689" t="s">
         <v>330</v>
@@ -64377,13 +64372,13 @@
     </row>
     <row r="2690" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2690" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B2690" t="s">
         <v>331</v>
       </c>
       <c r="C2690" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D2690" t="s">
         <v>330</v>
@@ -64400,7 +64395,7 @@
     </row>
     <row r="2691" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2691" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B2691" t="s">
         <v>331</v>
@@ -64423,7 +64418,7 @@
     </row>
     <row r="2692" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2692" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B2692" t="s">
         <v>333</v>
@@ -64446,7 +64441,7 @@
     </row>
     <row r="2693" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2693" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B2693" t="s">
         <v>335</v>
@@ -64469,13 +64464,13 @@
     </row>
     <row r="2694" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2694" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B2694" t="s">
         <v>340</v>
       </c>
       <c r="C2694" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="D2694" t="s">
         <v>330</v>
@@ -64492,13 +64487,13 @@
     </row>
     <row r="2695" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2695" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B2695" t="s">
         <v>340</v>
       </c>
       <c r="C2695" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D2695" t="s">
         <v>330</v>
@@ -64515,13 +64510,13 @@
     </row>
     <row r="2696" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2696" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B2696" t="s">
         <v>340</v>
       </c>
       <c r="C2696" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D2696" t="s">
         <v>341</v>
@@ -64538,7 +64533,7 @@
     </row>
     <row r="2697" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2697" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B2697" t="s">
         <v>340</v>
@@ -64561,13 +64556,13 @@
     </row>
     <row r="2698" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2698" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B2698" t="s">
         <v>342</v>
       </c>
       <c r="C2698" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D2698" t="s">
         <v>330</v>
@@ -64584,7 +64579,7 @@
     </row>
     <row r="2699" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2699" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B2699" t="s">
         <v>331</v>
@@ -64607,13 +64602,13 @@
     </row>
     <row r="2700" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2700" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B2700" t="s">
         <v>335</v>
       </c>
       <c r="C2700" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D2700" t="s">
         <v>330</v>
@@ -64630,13 +64625,13 @@
     </row>
     <row r="2701" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2701" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B2701" t="s">
         <v>331</v>
       </c>
       <c r="C2701" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D2701" t="s">
         <v>330</v>
@@ -64653,7 +64648,7 @@
     </row>
     <row r="2702" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2702" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B2702" t="s">
         <v>331</v>
@@ -64676,7 +64671,7 @@
     </row>
     <row r="2703" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2703" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B2703" t="s">
         <v>342</v>
@@ -64699,7 +64694,7 @@
     </row>
     <row r="2704" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2704" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B2704" t="s">
         <v>335</v>
@@ -64722,7 +64717,7 @@
     </row>
     <row r="2705" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2705" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B2705" t="s">
         <v>331</v>
@@ -64745,7 +64740,7 @@
     </row>
     <row r="2706" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2706" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B2706" t="s">
         <v>342</v>
@@ -64768,7 +64763,7 @@
     </row>
     <row r="2707" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2707" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B2707" t="s">
         <v>333</v>
@@ -64791,7 +64786,7 @@
     </row>
     <row r="2708" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2708" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B2708" t="s">
         <v>340</v>
@@ -64814,13 +64809,13 @@
     </row>
     <row r="2709" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2709" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B2709" t="s">
         <v>340</v>
       </c>
       <c r="C2709" t="s">
-        <v>366</v>
+        <v>7</v>
       </c>
       <c r="D2709" t="s">
         <v>330</v>
@@ -64837,13 +64832,13 @@
     </row>
     <row r="2710" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2710" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B2710" t="s">
         <v>340</v>
       </c>
       <c r="C2710" t="s">
-        <v>366</v>
+        <v>7</v>
       </c>
       <c r="D2710" t="s">
         <v>341</v>
@@ -64860,13 +64855,13 @@
     </row>
     <row r="2711" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2711" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B2711" t="s">
         <v>359</v>
       </c>
       <c r="C2711" t="s">
-        <v>366</v>
+        <v>7</v>
       </c>
       <c r="D2711" t="s">
         <v>330</v>
@@ -64883,7 +64878,7 @@
     </row>
     <row r="2712" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2712" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B2712" t="s">
         <v>340</v>
@@ -64906,7 +64901,7 @@
     </row>
     <row r="2713" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2713" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B2713" t="s">
         <v>331</v>
@@ -64929,13 +64924,13 @@
     </row>
     <row r="2714" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2714" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B2714" t="s">
         <v>331</v>
       </c>
       <c r="C2714" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D2714" t="s">
         <v>330</v>
@@ -64952,10 +64947,10 @@
     </row>
     <row r="2715" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2715" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B2715" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="C2715" t="s">
         <v>329</v>
@@ -64975,7 +64970,7 @@
     </row>
     <row r="2716" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2716" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B2716" t="s">
         <v>331</v>
@@ -64998,7 +64993,7 @@
     </row>
     <row r="2717" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2717" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B2717" t="s">
         <v>335</v>
@@ -65021,7 +65016,7 @@
     </row>
     <row r="2718" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2718" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B2718" t="s">
         <v>340</v>
@@ -65044,7 +65039,7 @@
     </row>
     <row r="2719" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2719" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B2719" t="s">
         <v>333</v>
@@ -65067,7 +65062,7 @@
     </row>
     <row r="2720" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2720" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B2720" t="s">
         <v>331</v>
@@ -65090,7 +65085,7 @@
     </row>
     <row r="2721" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2721" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B2721" t="s">
         <v>340</v>
@@ -65113,7 +65108,7 @@
     </row>
     <row r="2722" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2722" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B2722" t="s">
         <v>338</v>
@@ -65136,7 +65131,7 @@
     </row>
     <row r="2723" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2723" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B2723" t="s">
         <v>338</v>
@@ -65159,7 +65154,7 @@
     </row>
     <row r="2724" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2724" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B2724" t="s">
         <v>353</v>
@@ -65182,7 +65177,7 @@
     </row>
     <row r="2725" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2725" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B2725" t="s">
         <v>335</v>
@@ -65205,7 +65200,7 @@
     </row>
     <row r="2726" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2726" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B2726" t="s">
         <v>333</v>
@@ -65228,13 +65223,13 @@
     </row>
     <row r="2727" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2727" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B2727" t="s">
         <v>335</v>
       </c>
       <c r="C2727" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D2727" t="s">
         <v>330</v>
@@ -65251,7 +65246,7 @@
     </row>
     <row r="2728" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2728" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B2728" t="s">
         <v>338</v>
@@ -65274,13 +65269,13 @@
     </row>
     <row r="2729" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2729" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B2729" t="s">
         <v>335</v>
       </c>
       <c r="C2729" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D2729" t="s">
         <v>341</v>
@@ -65297,13 +65292,13 @@
     </row>
     <row r="2730" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2730" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B2730" t="s">
         <v>335</v>
       </c>
       <c r="C2730" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D2730" t="s">
         <v>330</v>
@@ -65320,7 +65315,7 @@
     </row>
     <row r="2731" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2731" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B2731" t="s">
         <v>340</v>
@@ -65343,7 +65338,7 @@
     </row>
     <row r="2732" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2732" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B2732" t="s">
         <v>342</v>
@@ -65366,7 +65361,7 @@
     </row>
     <row r="2733" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2733" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B2733" t="s">
         <v>335</v>
@@ -65389,7 +65384,7 @@
     </row>
     <row r="2734" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2734" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B2734" t="s">
         <v>335</v>
@@ -65412,7 +65407,7 @@
     </row>
     <row r="2735" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2735" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B2735" t="s">
         <v>333</v>
@@ -65435,7 +65430,7 @@
     </row>
     <row r="2736" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2736" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B2736" t="s">
         <v>335</v>
@@ -65458,7 +65453,7 @@
     </row>
     <row r="2737" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2737" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B2737" t="s">
         <v>335</v>
@@ -65481,7 +65476,7 @@
     </row>
     <row r="2738" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2738" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B2738" t="s">
         <v>333</v>
@@ -65504,7 +65499,7 @@
     </row>
     <row r="2739" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2739" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B2739" t="s">
         <v>331</v>
@@ -65527,7 +65522,7 @@
     </row>
     <row r="2740" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2740" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B2740" t="s">
         <v>331</v>
@@ -65550,13 +65545,13 @@
     </row>
     <row r="2741" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2741" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B2741" t="s">
         <v>333</v>
       </c>
       <c r="C2741" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D2741" t="s">
         <v>330</v>
@@ -65573,7 +65568,7 @@
     </row>
     <row r="2742" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2742" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B2742" t="s">
         <v>342</v>
@@ -65596,7 +65591,7 @@
     </row>
     <row r="2743" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2743" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B2743" t="s">
         <v>353</v>
@@ -65619,7 +65614,7 @@
     </row>
     <row r="2744" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2744" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B2744" t="s">
         <v>333</v>
@@ -65642,7 +65637,7 @@
     </row>
     <row r="2745" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2745" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B2745" t="s">
         <v>342</v>
@@ -65665,13 +65660,13 @@
     </row>
     <row r="2746" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2746" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B2746" t="s">
         <v>335</v>
       </c>
       <c r="C2746" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D2746" t="s">
         <v>341</v>
@@ -65688,13 +65683,13 @@
     </row>
     <row r="2747" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2747" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B2747" t="s">
         <v>342</v>
       </c>
       <c r="C2747" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D2747" t="s">
         <v>330</v>
@@ -65711,7 +65706,7 @@
     </row>
     <row r="2748" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2748" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B2748" t="s">
         <v>331</v>
@@ -65734,13 +65729,13 @@
     </row>
     <row r="2749" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2749" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B2749" t="s">
         <v>333</v>
       </c>
       <c r="C2749" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D2749" t="s">
         <v>330</v>
@@ -65757,13 +65752,13 @@
     </row>
     <row r="2750" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2750" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B2750" t="s">
         <v>333</v>
       </c>
       <c r="C2750" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D2750" t="s">
         <v>341</v>
@@ -65780,7 +65775,7 @@
     </row>
     <row r="2751" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2751" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B2751" t="s">
         <v>333</v>
@@ -65803,13 +65798,13 @@
     </row>
     <row r="2752" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2752" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B2752" t="s">
         <v>331</v>
       </c>
       <c r="C2752" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D2752" t="s">
         <v>330</v>
@@ -65826,13 +65821,13 @@
     </row>
     <row r="2753" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2753" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B2753" t="s">
         <v>340</v>
       </c>
       <c r="C2753" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="D2753" t="s">
         <v>341</v>
@@ -65849,7 +65844,7 @@
     </row>
     <row r="2754" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2754" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B2754" t="s">
         <v>331</v>
@@ -65872,7 +65867,7 @@
     </row>
     <row r="2755" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2755" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B2755" t="s">
         <v>331</v>
@@ -65895,7 +65890,7 @@
     </row>
     <row r="2756" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2756" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B2756" t="s">
         <v>335</v>
@@ -65918,7 +65913,7 @@
     </row>
     <row r="2757" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2757" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B2757" t="s">
         <v>335</v>
@@ -65941,7 +65936,7 @@
     </row>
     <row r="2758" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2758" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B2758" t="s">
         <v>342</v>
@@ -65964,7 +65959,7 @@
     </row>
     <row r="2759" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2759" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B2759" t="s">
         <v>333</v>
@@ -65987,7 +65982,7 @@
     </row>
     <row r="2760" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2760" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B2760" t="s">
         <v>333</v>
@@ -66010,7 +66005,7 @@
     </row>
     <row r="2761" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2761" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B2761" t="s">
         <v>335</v>
@@ -66033,13 +66028,13 @@
     </row>
     <row r="2762" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2762" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B2762" t="s">
         <v>333</v>
       </c>
       <c r="C2762" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="D2762" t="s">
         <v>341</v>
@@ -66056,13 +66051,13 @@
     </row>
     <row r="2763" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2763" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B2763" t="s">
         <v>333</v>
       </c>
       <c r="C2763" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="D2763" t="s">
         <v>341</v>
@@ -66079,7 +66074,7 @@
     </row>
     <row r="2764" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2764" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B2764" t="s">
         <v>333</v>
@@ -66102,13 +66097,13 @@
     </row>
     <row r="2765" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2765" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B2765" t="s">
         <v>333</v>
       </c>
       <c r="C2765" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="D2765" t="s">
         <v>341</v>
@@ -66125,7 +66120,7 @@
     </row>
     <row r="2766" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2766" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B2766" t="s">
         <v>340</v>
@@ -66148,7 +66143,7 @@
     </row>
     <row r="2767" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2767" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B2767" t="s">
         <v>331</v>
@@ -66171,13 +66166,13 @@
     </row>
     <row r="2768" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2768" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B2768" t="s">
         <v>335</v>
       </c>
       <c r="C2768" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D2768" t="s">
         <v>341</v>
@@ -66194,7 +66189,7 @@
     </row>
     <row r="2769" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2769" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B2769" t="s">
         <v>331</v>
@@ -66217,13 +66212,13 @@
     </row>
     <row r="2770" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2770" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B2770" t="s">
         <v>331</v>
       </c>
       <c r="C2770" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D2770" t="s">
         <v>330</v>
@@ -66240,13 +66235,13 @@
     </row>
     <row r="2771" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2771" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B2771" t="s">
         <v>335</v>
       </c>
       <c r="C2771" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="D2771" t="s">
         <v>330</v>
@@ -66263,13 +66258,13 @@
     </row>
     <row r="2772" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2772" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B2772" t="s">
         <v>335</v>
       </c>
       <c r="C2772" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="D2772" t="s">
         <v>330</v>
@@ -66286,7 +66281,7 @@
     </row>
     <row r="2773" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2773" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B2773" t="s">
         <v>335</v>
@@ -66309,7 +66304,7 @@
     </row>
     <row r="2774" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2774" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B2774" t="s">
         <v>335</v>
@@ -66332,7 +66327,7 @@
     </row>
     <row r="2775" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2775" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B2775" t="s">
         <v>340</v>
@@ -66355,7 +66350,7 @@
     </row>
     <row r="2776" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2776" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B2776" t="s">
         <v>364</v>
@@ -66378,13 +66373,13 @@
     </row>
     <row r="2777" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2777" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B2777" t="s">
         <v>328</v>
       </c>
       <c r="C2777" t="s">
-        <v>366</v>
+        <v>7</v>
       </c>
       <c r="D2777" t="s">
         <v>341</v>
@@ -66401,7 +66396,7 @@
     </row>
     <row r="2778" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2778" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B2778" t="s">
         <v>331</v>
@@ -66424,13 +66419,13 @@
     </row>
     <row r="2779" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2779" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B2779" t="s">
         <v>328</v>
       </c>
       <c r="C2779" t="s">
-        <v>366</v>
+        <v>7</v>
       </c>
       <c r="D2779" t="s">
         <v>330</v>
@@ -66447,7 +66442,7 @@
     </row>
     <row r="2780" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2780" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B2780" t="s">
         <v>331</v>
@@ -66470,7 +66465,7 @@
     </row>
     <row r="2781" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2781" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B2781" t="s">
         <v>342</v>
@@ -66493,13 +66488,13 @@
     </row>
     <row r="2782" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2782" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B2782" t="s">
         <v>340</v>
       </c>
       <c r="C2782" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D2782" t="s">
         <v>341</v>
@@ -66516,13 +66511,13 @@
     </row>
     <row r="2783" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2783" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B2783" t="s">
         <v>335</v>
       </c>
       <c r="C2783" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D2783" t="s">
         <v>341</v>
@@ -66539,7 +66534,7 @@
     </row>
     <row r="2784" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2784" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B2784" t="s">
         <v>331</v>
@@ -66562,7 +66557,7 @@
     </row>
     <row r="2785" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2785" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B2785" t="s">
         <v>335</v>
@@ -66585,7 +66580,7 @@
     </row>
     <row r="2786" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2786" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B2786" t="s">
         <v>335</v>
@@ -66608,7 +66603,7 @@
     </row>
     <row r="2787" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2787" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B2787" t="s">
         <v>335</v>
@@ -66631,13 +66626,13 @@
     </row>
     <row r="2788" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2788" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B2788" t="s">
         <v>340</v>
       </c>
       <c r="C2788" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D2788" t="s">
         <v>341</v>
@@ -66654,13 +66649,13 @@
     </row>
     <row r="2789" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2789" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B2789" t="s">
         <v>342</v>
       </c>
       <c r="C2789" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="D2789" t="s">
         <v>330</v>
@@ -66677,7 +66672,7 @@
     </row>
     <row r="2790" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2790" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B2790" t="s">
         <v>333</v>
@@ -66700,7 +66695,7 @@
     </row>
     <row r="2791" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2791" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B2791" t="s">
         <v>335</v>
@@ -66723,7 +66718,7 @@
     </row>
     <row r="2792" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2792" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B2792" t="s">
         <v>331</v>
@@ -66746,7 +66741,7 @@
     </row>
     <row r="2793" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2793" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B2793" t="s">
         <v>338</v>
@@ -66769,13 +66764,13 @@
     </row>
     <row r="2794" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2794" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B2794" t="s">
         <v>340</v>
       </c>
       <c r="C2794" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D2794" t="s">
         <v>330</v>
@@ -66792,7 +66787,7 @@
     </row>
     <row r="2795" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2795" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B2795" t="s">
         <v>340</v>
@@ -66815,13 +66810,13 @@
     </row>
     <row r="2796" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2796" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B2796" t="s">
         <v>359</v>
       </c>
       <c r="C2796" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D2796" t="s">
         <v>341</v>
@@ -66838,7 +66833,7 @@
     </row>
     <row r="2797" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2797" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B2797" t="s">
         <v>342</v>
@@ -66861,7 +66856,7 @@
     </row>
     <row r="2798" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2798" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B2798" t="s">
         <v>331</v>
@@ -66884,7 +66879,7 @@
     </row>
     <row r="2799" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2799" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B2799" t="s">
         <v>335</v>
@@ -66907,13 +66902,13 @@
     </row>
     <row r="2800" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2800" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B2800" t="s">
         <v>340</v>
       </c>
       <c r="C2800" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D2800" t="s">
         <v>330</v>
@@ -66930,7 +66925,7 @@
     </row>
     <row r="2801" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2801" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B2801" t="s">
         <v>342</v>
@@ -66953,13 +66948,13 @@
     </row>
     <row r="2802" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2802" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B2802" t="s">
         <v>335</v>
       </c>
       <c r="C2802" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D2802" t="s">
         <v>341</v>
@@ -66976,7 +66971,7 @@
     </row>
     <row r="2803" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2803" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B2803" t="s">
         <v>331</v>
@@ -66999,7 +66994,7 @@
     </row>
     <row r="2804" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2804" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B2804" t="s">
         <v>342</v>
@@ -67022,7 +67017,7 @@
     </row>
     <row r="2805" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2805" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B2805" t="s">
         <v>331</v>
@@ -67045,7 +67040,7 @@
     </row>
     <row r="2806" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2806" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B2806" t="s">
         <v>342</v>
@@ -67068,7 +67063,7 @@
     </row>
     <row r="2807" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2807" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B2807" t="s">
         <v>335</v>
@@ -67091,13 +67086,13 @@
     </row>
     <row r="2808" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2808" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B2808" t="s">
         <v>340</v>
       </c>
       <c r="C2808" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D2808" t="s">
         <v>330</v>
@@ -67114,13 +67109,13 @@
     </row>
     <row r="2809" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2809" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B2809" t="s">
         <v>340</v>
       </c>
       <c r="C2809" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="D2809" t="s">
         <v>341</v>
@@ -67137,7 +67132,7 @@
     </row>
     <row r="2810" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2810" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B2810" t="s">
         <v>333</v>
@@ -67160,7 +67155,7 @@
     </row>
     <row r="2811" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2811" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B2811" t="s">
         <v>342</v>
@@ -67183,7 +67178,7 @@
     </row>
     <row r="2812" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2812" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B2812" t="s">
         <v>340</v>
@@ -67206,7 +67201,7 @@
     </row>
     <row r="2813" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2813" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B2813" t="s">
         <v>333</v>
@@ -67229,7 +67224,7 @@
     </row>
     <row r="2814" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2814" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B2814" t="s">
         <v>335</v>
@@ -67252,13 +67247,13 @@
     </row>
     <row r="2815" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2815" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B2815" t="s">
         <v>340</v>
       </c>
       <c r="C2815" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D2815" t="s">
         <v>330</v>
@@ -67275,13 +67270,13 @@
     </row>
     <row r="2816" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2816" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B2816" t="s">
         <v>333</v>
       </c>
       <c r="C2816" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="D2816" t="s">
         <v>330</v>
@@ -67298,7 +67293,7 @@
     </row>
     <row r="2817" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2817" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B2817" t="s">
         <v>340</v>
@@ -67321,7 +67316,7 @@
     </row>
     <row r="2818" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2818" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B2818" t="s">
         <v>335</v>
@@ -67344,13 +67339,13 @@
     </row>
     <row r="2819" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2819" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B2819" t="s">
         <v>340</v>
       </c>
       <c r="C2819" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="D2819" t="s">
         <v>341</v>
@@ -67367,13 +67362,13 @@
     </row>
     <row r="2820" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2820" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B2820" t="s">
         <v>333</v>
       </c>
       <c r="C2820" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D2820" t="s">
         <v>341</v>
@@ -67390,7 +67385,7 @@
     </row>
     <row r="2821" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2821" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B2821" t="s">
         <v>335</v>
@@ -67413,7 +67408,7 @@
     </row>
     <row r="2822" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2822" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B2822" t="s">
         <v>344</v>
@@ -67436,13 +67431,13 @@
     </row>
     <row r="2823" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2823" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B2823" t="s">
         <v>335</v>
       </c>
       <c r="C2823" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="D2823" t="s">
         <v>330</v>
@@ -67459,7 +67454,7 @@
     </row>
     <row r="2824" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2824" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B2824" t="s">
         <v>333</v>
@@ -67482,7 +67477,7 @@
     </row>
     <row r="2825" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2825" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B2825" t="s">
         <v>340</v>
@@ -67505,13 +67500,13 @@
     </row>
     <row r="2826" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2826" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B2826" t="s">
         <v>335</v>
       </c>
       <c r="C2826" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D2826" t="s">
         <v>341</v>
@@ -67528,13 +67523,13 @@
     </row>
     <row r="2827" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2827" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B2827" t="s">
         <v>333</v>
       </c>
       <c r="C2827" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D2827" t="s">
         <v>330</v>
@@ -67551,13 +67546,13 @@
     </row>
     <row r="2828" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2828" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B2828" t="s">
         <v>331</v>
       </c>
       <c r="C2828" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="D2828" t="s">
         <v>330</v>
@@ -67574,7 +67569,7 @@
     </row>
     <row r="2829" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2829" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B2829" t="s">
         <v>340</v>
@@ -67597,13 +67592,13 @@
     </row>
     <row r="2830" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2830" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B2830" t="s">
         <v>335</v>
       </c>
       <c r="C2830" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D2830" t="s">
         <v>330</v>
@@ -67620,13 +67615,13 @@
     </row>
     <row r="2831" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2831" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B2831" t="s">
         <v>342</v>
       </c>
       <c r="C2831" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="D2831" t="s">
         <v>330</v>
@@ -67643,7 +67638,7 @@
     </row>
     <row r="2832" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2832" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B2832" t="s">
         <v>335</v>
@@ -67666,7 +67661,7 @@
     </row>
     <row r="2833" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2833" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B2833" t="s">
         <v>333</v>
@@ -67689,13 +67684,13 @@
     </row>
     <row r="2834" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2834" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B2834" t="s">
         <v>340</v>
       </c>
       <c r="C2834" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D2834" t="s">
         <v>341</v>
@@ -67712,13 +67707,13 @@
     </row>
     <row r="2835" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2835" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B2835" t="s">
         <v>331</v>
       </c>
       <c r="C2835" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D2835" t="s">
         <v>330</v>
@@ -67735,13 +67730,13 @@
     </row>
     <row r="2836" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2836" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B2836" t="s">
         <v>340</v>
       </c>
       <c r="C2836" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="D2836" t="s">
         <v>330</v>
@@ -67758,13 +67753,13 @@
     </row>
     <row r="2837" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2837" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B2837" t="s">
         <v>335</v>
       </c>
       <c r="C2837" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D2837" t="s">
         <v>341</v>
@@ -67781,7 +67776,7 @@
     </row>
     <row r="2838" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2838" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B2838" t="s">
         <v>340</v>
@@ -67804,13 +67799,13 @@
     </row>
     <row r="2839" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2839" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B2839" t="s">
         <v>340</v>
       </c>
       <c r="C2839" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="D2839" t="s">
         <v>330</v>
@@ -67827,13 +67822,13 @@
     </row>
     <row r="2840" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2840" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B2840" t="s">
         <v>344</v>
       </c>
       <c r="C2840" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="D2840" t="s">
         <v>330</v>
@@ -67850,7 +67845,7 @@
     </row>
     <row r="2841" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2841" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B2841" t="s">
         <v>331</v>
@@ -67873,7 +67868,7 @@
     </row>
     <row r="2842" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2842" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B2842" t="s">
         <v>333</v>
